--- a/data/Municipios informacoes dia.xlsx
+++ b/data/Municipios informacoes dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Covid_19\Covid_19\Arquivos diarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C89697-51F7-4CBB-B5C9-B470CFDB8352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A9922-674D-4572-8600-CCC6AAE02799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="20" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="21" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
   </bookViews>
   <sheets>
     <sheet name="26_mar" sheetId="2" r:id="rId1"/>
@@ -34,11 +34,13 @@
     <sheet name="19_abr" sheetId="21" r:id="rId19"/>
     <sheet name="20_abr" sheetId="22" r:id="rId20"/>
     <sheet name="21_abr" sheetId="23" r:id="rId21"/>
+    <sheet name="22_abr" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'08_abr'!$H$58:$I$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'17_abr'!$A$1:$C$219</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'21_abr'!$B$5:$D$248</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'22_abr'!$A$4:$C$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="427">
   <si>
     <t>Casos confirmados</t>
   </si>
@@ -1332,6 +1334,12 @@
   <si>
     <t>VISTA ALEGRE DO ALTO</t>
   </si>
+  <si>
+    <t>CABREUVA</t>
+  </si>
+  <si>
+    <t>JABORANDI</t>
+  </si>
 </sst>
 </file>
 
@@ -27127,7 +27135,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B5:D248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A232" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J240" sqref="J240"/>
     </sheetView>
   </sheetViews>
@@ -29397,6 +29405,2300 @@
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0854CE-BEAB-4D5B-995E-D6A22A52CFEE}">
+  <dimension ref="A4:C249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="G246" sqref="G246"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>148</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>425</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>202</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>348</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>403</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>324</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>419</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>104</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>420</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>94</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>138</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>414</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>62</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78">
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81">
+        <v>67</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>301</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86">
+        <v>68</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>331</v>
+      </c>
+      <c r="C87">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>415</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>411</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>404</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>388</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102">
+        <v>53</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105">
+        <v>51</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>426</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>297</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119">
+        <v>16</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>298</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124">
+        <v>67</v>
+      </c>
+      <c r="C124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>405</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>389</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>308</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>80</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>328</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139">
+        <v>109</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>416</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>417</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>229</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145">
+        <v>127</v>
+      </c>
+      <c r="C145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>367</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>311</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>204</v>
+      </c>
+      <c r="B149">
+        <v>11</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>331</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>332</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>333</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>421</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>263</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158">
+        <v>353</v>
+      </c>
+      <c r="C158">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>264</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>54</v>
+      </c>
+      <c r="B161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>391</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>334</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>266</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>205</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>406</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>313</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>206</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>233</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>372</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>56</v>
+      </c>
+      <c r="B172">
+        <v>25</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>412</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>84</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>335</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176">
+        <v>30</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>314</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>407</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>267</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>85</v>
+      </c>
+      <c r="B181">
+        <v>57</v>
+      </c>
+      <c r="C181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>336</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>234</v>
+      </c>
+      <c r="B183">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>207</v>
+      </c>
+      <c r="B184">
+        <v>8</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>422</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>418</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>392</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>393</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190">
+        <v>35</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>42</v>
+      </c>
+      <c r="B191">
+        <v>86</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>315</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>337</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194">
+        <v>14</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>208</v>
+      </c>
+      <c r="B195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>209</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>269</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>161</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>210</v>
+      </c>
+      <c r="B200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>376</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>87</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>292</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204">
+        <v>65</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205">
+        <v>275</v>
+      </c>
+      <c r="C205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>394</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>58</v>
+      </c>
+      <c r="B207">
+        <v>323</v>
+      </c>
+      <c r="C207">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208">
+        <v>339</v>
+      </c>
+      <c r="C208">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209">
+        <v>112</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>9</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>270</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>395</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>88</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214">
+        <v>73</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>27</v>
+      </c>
+      <c r="B215">
+        <v>139</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>423</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>163</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>271</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219">
+        <v>10691</v>
+      </c>
+      <c r="C219">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>59</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>212</v>
+      </c>
+      <c r="B221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>239</v>
+      </c>
+      <c r="B222">
+        <v>14</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>89</v>
+      </c>
+      <c r="B223">
+        <v>60</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>408</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>272</v>
+      </c>
+      <c r="B225">
+        <v>9</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>43</v>
+      </c>
+      <c r="B226">
+        <v>56</v>
+      </c>
+      <c r="C226">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>213</v>
+      </c>
+      <c r="B227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228">
+        <v>83</v>
+      </c>
+      <c r="C228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>31</v>
+      </c>
+      <c r="B229">
+        <v>132</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>413</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>409</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>410</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>33</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>32</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>187</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>273</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>304</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>34</v>
+      </c>
+      <c r="B239">
+        <v>14</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>35</v>
+      </c>
+      <c r="B240">
+        <v>10</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>316</v>
+      </c>
+      <c r="B241">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>90</v>
+      </c>
+      <c r="B242">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>424</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>147</v>
+      </c>
+      <c r="B244">
+        <v>7</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>92</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>338</v>
+      </c>
+      <c r="B246">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>339</v>
+      </c>
+      <c r="B247">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>340</v>
+      </c>
+      <c r="B248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B249" s="69">
+        <f>SUM(B5:B248)</f>
+        <v>15914</v>
+      </c>
+      <c r="C249" s="69">
+        <f>SUM(C5:C248)</f>
+        <v>1134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/data/Municipios informacoes dia.xlsx
+++ b/data/Municipios informacoes dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Covid_19\Covid_19\Arquivos diarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F04431-24BC-41D0-9877-7C7127A480E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E841CA-5E85-4EDE-B757-2ECAD9741661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="25" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="15" activeTab="26" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
   </bookViews>
   <sheets>
     <sheet name="26_mar" sheetId="2" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="21_abr" sheetId="23" r:id="rId24"/>
     <sheet name="22_abr" sheetId="24" r:id="rId25"/>
     <sheet name="23_abr" sheetId="28" r:id="rId26"/>
+    <sheet name="24_abr" sheetId="29" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08_abr'!$H$58:$I$58</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="465">
   <si>
     <t>Casos confirmados</t>
   </si>
@@ -1417,6 +1418,48 @@
   <si>
     <t>SAO SEBASTIAO DA GRAMA</t>
   </si>
+  <si>
+    <t>BARRA BONITA</t>
+  </si>
+  <si>
+    <t>BIRITIBA-MIRIM</t>
+  </si>
+  <si>
+    <t>BORBOREMA</t>
+  </si>
+  <si>
+    <t>CORDEIROPOLIS</t>
+  </si>
+  <si>
+    <t>DOBRADA</t>
+  </si>
+  <si>
+    <t>ENGENHEIRO COELHO</t>
+  </si>
+  <si>
+    <t>ESTRELA D'OESTE</t>
+  </si>
+  <si>
+    <t>GUAIRA</t>
+  </si>
+  <si>
+    <t>ITIRAPINA</t>
+  </si>
+  <si>
+    <t>JARINU</t>
+  </si>
+  <si>
+    <t>JUQUIA</t>
+  </si>
+  <si>
+    <t>LAVRINHAS</t>
+  </si>
+  <si>
+    <t>MARTINOPOLIS</t>
+  </si>
+  <si>
+    <t>SERRA NEGRA</t>
+  </si>
 </sst>
 </file>
 
@@ -1738,7 +1781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1915,6 +1958,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37284,7 +37329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE273238-43BF-49F9-8FD8-B3DD07FED51D}">
   <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+    <sheetView topLeftCell="A234" workbookViewId="0">
       <selection activeCell="F258" sqref="F258"/>
     </sheetView>
   </sheetViews>
@@ -39740,6 +39785,2594 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F2B5D2-F360-421B-AA96-9DAE775979D2}">
+  <dimension ref="A2:C275"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="A273" sqref="A273:XFD274"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>46</v>
+      </c>
+      <c r="C16" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>49</v>
+      </c>
+      <c r="C19" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>437</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>402</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>170</v>
+      </c>
+      <c r="C34" s="83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>63</v>
+      </c>
+      <c r="C36" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>453</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="C43" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44">
+        <v>37</v>
+      </c>
+      <c r="C44" s="83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>56</v>
+      </c>
+      <c r="C51" s="83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>440</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>229</v>
+      </c>
+      <c r="C55" s="83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>348</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>403</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>126</v>
+      </c>
+      <c r="C62" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>420</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>454</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>104</v>
+      </c>
+      <c r="C69" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73">
+        <v>151</v>
+      </c>
+      <c r="C73" s="83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>414</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>68</v>
+      </c>
+      <c r="C79" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>456</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>441</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>296</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>457</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>326</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87">
+        <v>62</v>
+      </c>
+      <c r="C87" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89">
+        <v>39</v>
+      </c>
+      <c r="C89" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90">
+        <v>78</v>
+      </c>
+      <c r="C90" s="83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>301</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>458</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96">
+        <v>98</v>
+      </c>
+      <c r="C96" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>399</v>
+      </c>
+      <c r="C97" s="83">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>415</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>287</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>411</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>327</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>404</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>388</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109">
+        <v>14</v>
+      </c>
+      <c r="C109" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B111">
+        <v>7</v>
+      </c>
+      <c r="C111" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>64</v>
+      </c>
+      <c r="C112" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115">
+        <v>74</v>
+      </c>
+      <c r="C115" s="83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+      <c r="C116" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>63</v>
+      </c>
+      <c r="C117" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>442</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>459</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>426</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126">
+        <v>13</v>
+      </c>
+      <c r="C126" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127">
+        <v>26</v>
+      </c>
+      <c r="C127" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="C131" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>298</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>460</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137">
+        <v>69</v>
+      </c>
+      <c r="C137" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>405</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>461</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>389</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>228</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>462</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>308</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>80</v>
+      </c>
+      <c r="B145">
+        <v>13</v>
+      </c>
+      <c r="C145" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>309</v>
+      </c>
+      <c r="B146">
+        <v>11</v>
+      </c>
+      <c r="C146" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>328</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>443</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>310</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>15</v>
+      </c>
+      <c r="C152" s="83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153">
+        <v>8</v>
+      </c>
+      <c r="C153" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>463</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156">
+        <v>119</v>
+      </c>
+      <c r="C156" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>416</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>390</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>444</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>417</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>229</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163">
+        <v>133</v>
+      </c>
+      <c r="C163" s="83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>82</v>
+      </c>
+      <c r="B164">
+        <v>13</v>
+      </c>
+      <c r="C164" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>367</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>311</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>204</v>
+      </c>
+      <c r="B167">
+        <v>11</v>
+      </c>
+      <c r="C167" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>421</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>312</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>156</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>263</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176">
+        <v>389</v>
+      </c>
+      <c r="C176" s="83">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>264</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>445</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180">
+        <v>11</v>
+      </c>
+      <c r="C180" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>391</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>334</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>266</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>205</v>
+      </c>
+      <c r="B185">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>406</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>313</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+      <c r="C188" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>233</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>372</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>56</v>
+      </c>
+      <c r="B191">
+        <v>36</v>
+      </c>
+      <c r="C191" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>412</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>84</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>446</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>335</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>447</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197">
+        <v>30</v>
+      </c>
+      <c r="C197" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>314</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>407</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>57</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>267</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>85</v>
+      </c>
+      <c r="B202">
+        <v>78</v>
+      </c>
+      <c r="C202" s="83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>336</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>234</v>
+      </c>
+      <c r="B204">
+        <v>13</v>
+      </c>
+      <c r="C204" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205">
+        <v>10</v>
+      </c>
+      <c r="C205" s="83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>183</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>422</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>418</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>392</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>393</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211">
+        <v>38</v>
+      </c>
+      <c r="C211" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>42</v>
+      </c>
+      <c r="B212">
+        <v>92</v>
+      </c>
+      <c r="C212" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>315</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>337</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215">
+        <v>14</v>
+      </c>
+      <c r="C215" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>208</v>
+      </c>
+      <c r="B216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>448</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>209</v>
+      </c>
+      <c r="B218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>133</v>
+      </c>
+      <c r="B219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>269</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>161</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>210</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>376</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B224">
+        <v>6</v>
+      </c>
+      <c r="C224" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>292</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>449</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227">
+        <v>68</v>
+      </c>
+      <c r="C227" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228">
+        <v>296</v>
+      </c>
+      <c r="C228" s="83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>394</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>58</v>
+      </c>
+      <c r="B230">
+        <v>367</v>
+      </c>
+      <c r="C230" s="83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231">
+        <v>421</v>
+      </c>
+      <c r="C231" s="83">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>25</v>
+      </c>
+      <c r="B232">
+        <v>127</v>
+      </c>
+      <c r="C232" s="83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>211</v>
+      </c>
+      <c r="B233">
+        <v>10</v>
+      </c>
+      <c r="C233" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>270</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>395</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>88</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>26</v>
+      </c>
+      <c r="B237">
+        <v>71</v>
+      </c>
+      <c r="C237" s="83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>27</v>
+      </c>
+      <c r="B238">
+        <v>158</v>
+      </c>
+      <c r="C238" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>423</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>163</v>
+      </c>
+      <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="C240" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>271</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>28</v>
+      </c>
+      <c r="B242">
+        <v>11800</v>
+      </c>
+      <c r="C242" s="83">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>59</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>212</v>
+      </c>
+      <c r="B244">
+        <v>14</v>
+      </c>
+      <c r="C244" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>29</v>
+      </c>
+      <c r="B245">
+        <v>14</v>
+      </c>
+      <c r="C245" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>450</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>89</v>
+      </c>
+      <c r="B247">
+        <v>85</v>
+      </c>
+      <c r="C247" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>464</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>408</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>272</v>
+      </c>
+      <c r="B250">
+        <v>9</v>
+      </c>
+      <c r="C250" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>43</v>
+      </c>
+      <c r="B251">
+        <v>57</v>
+      </c>
+      <c r="C251" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>213</v>
+      </c>
+      <c r="B252">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253">
+        <v>86</v>
+      </c>
+      <c r="C253" s="83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>31</v>
+      </c>
+      <c r="B254">
+        <v>142</v>
+      </c>
+      <c r="C254" s="83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>396</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>242</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>413</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>409</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>410</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>33</v>
+      </c>
+      <c r="B260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>32</v>
+      </c>
+      <c r="B261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>187</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>273</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>304</v>
+      </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>34</v>
+      </c>
+      <c r="B265">
+        <v>17</v>
+      </c>
+      <c r="C265" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>35</v>
+      </c>
+      <c r="B266">
+        <v>12</v>
+      </c>
+      <c r="C266" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>316</v>
+      </c>
+      <c r="B267">
+        <v>8</v>
+      </c>
+      <c r="C267" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>90</v>
+      </c>
+      <c r="B268">
+        <v>19</v>
+      </c>
+      <c r="C268" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>424</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>147</v>
+      </c>
+      <c r="B270">
+        <v>8</v>
+      </c>
+      <c r="C270" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>92</v>
+      </c>
+      <c r="B271">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>340</v>
+      </c>
+      <c r="B272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>338</v>
+      </c>
+      <c r="B273">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>339</v>
+      </c>
+      <c r="B274">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B275" s="69">
+        <v>17826</v>
+      </c>
+      <c r="C275" s="82">
+        <v>1512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/data/Municipios informacoes dia.xlsx
+++ b/data/Municipios informacoes dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Covid_19\Covid_19\Arquivos diarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D250A9CC-C350-4348-99CF-3B072EDB80E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7ACE4-1B22-461B-B667-8D9D7A4AD00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="29" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="19" activeTab="30" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
   </bookViews>
   <sheets>
     <sheet name="26_mar" sheetId="2" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <sheet name="25_abr" sheetId="30" r:id="rId28"/>
     <sheet name="26_abr" sheetId="31" r:id="rId29"/>
     <sheet name="27_abr" sheetId="32" r:id="rId30"/>
+    <sheet name="28_abr" sheetId="33" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08_abr'!$H$58:$I$58</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5803" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="502">
   <si>
     <t>Casos confirmados</t>
   </si>
@@ -1526,6 +1527,54 @@
   <si>
     <t>SANTA FE DO SUL</t>
   </si>
+  <si>
+    <t>MUNICÍPIOS</t>
+  </si>
+  <si>
+    <t>ALVARES MACHADO</t>
+  </si>
+  <si>
+    <t>BOCAINA</t>
+  </si>
+  <si>
+    <t>CACONDE</t>
+  </si>
+  <si>
+    <t>COLINA</t>
+  </si>
+  <si>
+    <t>COSMOPOLIS</t>
+  </si>
+  <si>
+    <t>COSMORAMA</t>
+  </si>
+  <si>
+    <t>GUARA</t>
+  </si>
+  <si>
+    <t>LINDOIA</t>
+  </si>
+  <si>
+    <t>NOVO HORIZONTE</t>
+  </si>
+  <si>
+    <t>PARISI</t>
+  </si>
+  <si>
+    <t>PIQUEROBI</t>
+  </si>
+  <si>
+    <t>REGENTE FEIJO</t>
+  </si>
+  <si>
+    <t>RIBEIRAO BRANCO</t>
+  </si>
+  <si>
+    <t>SANTO ANTONIO DE POSSE</t>
+  </si>
+  <si>
+    <t>TUPI PAULISTA</t>
+  </si>
 </sst>
 </file>
 
@@ -49326,7 +49375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7A3EB1-88E4-4BF6-A488-35574ED01A01}">
   <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+    <sheetView topLeftCell="A265" workbookViewId="0">
       <selection activeCell="J280" sqref="J280"/>
     </sheetView>
   </sheetViews>
@@ -52059,6 +52108,2911 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EDE0D-CC81-4D9C-A8FE-2B795C716949}">
+  <dimension ref="A1:C307"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="J299" sqref="J299"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>253</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>488</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>465</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>466</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>425</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>489</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>71</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>440</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>306</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>320</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>348</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>187</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>351</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>490</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>454</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>491</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>492</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>146</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>325</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82">
+        <v>239</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>455</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>352</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>414</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>95</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>456</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>296</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>457</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>354</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>326</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96">
+        <v>86</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98">
+        <v>66</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99">
+        <v>117</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>458</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>493</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>255</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106">
+        <v>139</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>562</v>
+      </c>
+      <c r="C107">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>415</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>467</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>411</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>482</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>327</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>302</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>404</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118">
+        <v>13</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121">
+        <v>22</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>468</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125">
+        <v>93</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128">
+        <v>101</v>
+      </c>
+      <c r="C128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129">
+        <v>17</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130">
+        <v>101</v>
+      </c>
+      <c r="C130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>442</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>459</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>483</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>426</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>297</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>225</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145">
+        <v>40</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>460</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>261</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>177</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151">
+        <v>90</v>
+      </c>
+      <c r="C151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>405</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>461</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>389</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>228</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>462</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>80</v>
+      </c>
+      <c r="B159">
+        <v>29</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>494</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>309</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>328</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>443</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>303</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>310</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <v>21</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>463</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>81</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172">
+        <v>179</v>
+      </c>
+      <c r="C172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>416</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>390</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>444</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>417</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>229</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179">
+        <v>199</v>
+      </c>
+      <c r="C179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>82</v>
+      </c>
+      <c r="B180">
+        <v>23</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>330</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>311</v>
+      </c>
+      <c r="B182">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>204</v>
+      </c>
+      <c r="B183">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>469</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>331</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>332</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>333</v>
+      </c>
+      <c r="B187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>421</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>312</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>156</v>
+      </c>
+      <c r="B190">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>495</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>263</v>
+      </c>
+      <c r="B192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>179</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194">
+        <v>646</v>
+      </c>
+      <c r="C194">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>264</v>
+      </c>
+      <c r="B195">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>445</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>265</v>
+      </c>
+      <c r="B197">
+        <v>17</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>496</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>54</v>
+      </c>
+      <c r="B199">
+        <v>11</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>391</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>334</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>266</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>470</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>55</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>313</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>9</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>233</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>471</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>497</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213">
+        <v>63</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>412</v>
+      </c>
+      <c r="B214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>84</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>472</v>
+      </c>
+      <c r="B216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>446</v>
+      </c>
+      <c r="B217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>335</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>447</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>45</v>
+      </c>
+      <c r="C220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>314</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>407</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>57</v>
+      </c>
+      <c r="B223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>267</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>484</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>85</v>
+      </c>
+      <c r="B226">
+        <v>116</v>
+      </c>
+      <c r="C226">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>336</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>473</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229">
+        <v>18</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>207</v>
+      </c>
+      <c r="B230">
+        <v>11</v>
+      </c>
+      <c r="C230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>183</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>422</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>418</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>392</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>498</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>393</v>
+      </c>
+      <c r="B236">
+        <v>9</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>499</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238">
+        <v>58</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>42</v>
+      </c>
+      <c r="B239">
+        <v>110</v>
+      </c>
+      <c r="C239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>315</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>337</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>21</v>
+      </c>
+      <c r="B242">
+        <v>16</v>
+      </c>
+      <c r="C242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>208</v>
+      </c>
+      <c r="B243">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>448</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>209</v>
+      </c>
+      <c r="B245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>133</v>
+      </c>
+      <c r="B246">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>269</v>
+      </c>
+      <c r="B247">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>161</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>474</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>210</v>
+      </c>
+      <c r="B250">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>485</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>376</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>87</v>
+      </c>
+      <c r="B253">
+        <v>11</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>292</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>449</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256">
+        <v>97</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257">
+        <v>420</v>
+      </c>
+      <c r="C257">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>394</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>500</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>475</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>476</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>58</v>
+      </c>
+      <c r="B262">
+        <v>495</v>
+      </c>
+      <c r="C262">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263">
+        <v>566</v>
+      </c>
+      <c r="C263">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>25</v>
+      </c>
+      <c r="B264">
+        <v>152</v>
+      </c>
+      <c r="C264">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>211</v>
+      </c>
+      <c r="B265">
+        <v>12</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>395</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>88</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>26</v>
+      </c>
+      <c r="B269">
+        <v>83</v>
+      </c>
+      <c r="C269">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270">
+        <v>194</v>
+      </c>
+      <c r="C270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>423</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>163</v>
+      </c>
+      <c r="B272">
+        <v>9</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>28</v>
+      </c>
+      <c r="B274">
+        <v>15397</v>
+      </c>
+      <c r="C274">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>59</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>212</v>
+      </c>
+      <c r="B276">
+        <v>20</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277">
+        <v>31</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>450</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>89</v>
+      </c>
+      <c r="B279">
+        <v>131</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>464</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>408</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>272</v>
+      </c>
+      <c r="B282">
+        <v>11</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>477</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>43</v>
+      </c>
+      <c r="B284">
+        <v>101</v>
+      </c>
+      <c r="C284">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>213</v>
+      </c>
+      <c r="B285">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>30</v>
+      </c>
+      <c r="B286">
+        <v>137</v>
+      </c>
+      <c r="C286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>31</v>
+      </c>
+      <c r="B287">
+        <v>170</v>
+      </c>
+      <c r="C287">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>396</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>242</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>413</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>409</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>410</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>33</v>
+      </c>
+      <c r="B293">
+        <v>13</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>32</v>
+      </c>
+      <c r="B294">
+        <v>33</v>
+      </c>
+      <c r="C294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>187</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>478</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>273</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>501</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>304</v>
+      </c>
+      <c r="B299">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>34</v>
+      </c>
+      <c r="B300">
+        <v>23</v>
+      </c>
+      <c r="C300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>35</v>
+      </c>
+      <c r="B301">
+        <v>11</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>316</v>
+      </c>
+      <c r="B302">
+        <v>13</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>90</v>
+      </c>
+      <c r="B303">
+        <v>27</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>424</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>147</v>
+      </c>
+      <c r="B305">
+        <v>12</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>92</v>
+      </c>
+      <c r="B306">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B307" s="69">
+        <f>SUM(B2:B306)</f>
+        <v>24041</v>
+      </c>
+      <c r="C307" s="69">
+        <f>SUM(C2:C306)</f>
+        <v>2049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/data/Municipios informacoes dia.xlsx
+++ b/data/Municipios informacoes dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Covid_19\Covid_19\Arquivos diarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7ACE4-1B22-461B-B667-8D9D7A4AD00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65171767-3185-41D1-8D98-A03E8708C6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="19" activeTab="30" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="20" activeTab="31" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
   </bookViews>
   <sheets>
     <sheet name="26_mar" sheetId="2" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="26_abr" sheetId="31" r:id="rId29"/>
     <sheet name="27_abr" sheetId="32" r:id="rId30"/>
     <sheet name="28_abr" sheetId="33" r:id="rId31"/>
+    <sheet name="29_abr" sheetId="34" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08_abr'!$H$58:$I$58</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6428" uniqueCount="511">
   <si>
     <t>Casos confirmados</t>
   </si>
@@ -1575,6 +1576,33 @@
   <si>
     <t>TUPI PAULISTA</t>
   </si>
+  <si>
+    <t>AGUAS DA PRATA</t>
+  </si>
+  <si>
+    <t>GUARIBA</t>
+  </si>
+  <si>
+    <t>PARAIBUNA</t>
+  </si>
+  <si>
+    <t>PARANAPANEMA</t>
+  </si>
+  <si>
+    <t>PRESIDENTE EPITACIO</t>
+  </si>
+  <si>
+    <t>RIO DAS PEDRAS</t>
+  </si>
+  <si>
+    <t>SALTINHO</t>
+  </si>
+  <si>
+    <t>SARAPUI</t>
+  </si>
+  <si>
+    <t>VARGEM</t>
+  </si>
 </sst>
 </file>
 
@@ -7468,10 +7496,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813F6949-459A-4F07-B4F9-100C0C152331}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8703,10 +8731,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="72" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="B112" s="77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C112" s="77">
         <v>0</v>
@@ -8714,10 +8742,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="72" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="B113" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" s="77">
         <v>0</v>
@@ -8725,29 +8753,29 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="72" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B114" s="77">
         <v>2</v>
       </c>
       <c r="C114" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="72" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="B115" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="72" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="B116" s="77">
         <v>1</v>
@@ -8758,76 +8786,76 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="72" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B117" s="77">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C117" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="72" t="s">
-        <v>134</v>
+      <c r="A118" s="76" t="s">
+        <v>135</v>
       </c>
       <c r="B118" s="77">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C118" s="77">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="76" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="B119" s="77">
         <v>130</v>
       </c>
       <c r="C119" s="77">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="76" t="s">
-        <v>58</v>
+      <c r="A120" s="72" t="s">
+        <v>136</v>
       </c>
       <c r="B120" s="77">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C120" s="77">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B121" s="77">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C121" s="77">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="72" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="B122" s="77">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C122" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="72" t="s">
-        <v>235</v>
+        <v>379</v>
       </c>
       <c r="B123" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="77">
         <v>0</v>
@@ -8835,7 +8863,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="72" t="s">
-        <v>379</v>
+        <v>138</v>
       </c>
       <c r="B124" s="77">
         <v>1</v>
@@ -8846,21 +8874,21 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="77">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C125" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B126" s="77">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C126" s="77">
         <v>1</v>
@@ -8868,10 +8896,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="72" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="B127" s="77">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C127" s="77">
         <v>1</v>
@@ -8879,32 +8907,32 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="72" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="B128" s="77">
-        <v>3</v>
+        <v>5477</v>
       </c>
       <c r="C128" s="77">
-        <v>1</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="72" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="B129" s="77">
-        <v>5471</v>
+        <v>1</v>
       </c>
       <c r="C129" s="77">
-        <v>384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B130" s="77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130" s="77">
         <v>0</v>
@@ -8912,32 +8940,32 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B131" s="77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="72" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="B132" s="77">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C132" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="72" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="B133" s="77">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C133" s="77">
         <v>0</v>
@@ -8945,65 +8973,65 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="72" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="B134" s="77">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C134" s="77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="72" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="B135" s="77">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C135" s="77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="72" t="s">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="B136" s="77">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C136" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" s="77">
+        <v>67</v>
+      </c>
+      <c r="C137" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" s="77">
+        <v>1</v>
+      </c>
+      <c r="C138" s="77">
         <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B137" s="77">
-        <v>24</v>
-      </c>
-      <c r="C137" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>144</v>
-      </c>
-      <c r="B138" s="77">
-        <v>67</v>
-      </c>
-      <c r="C138" s="53">
-        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="72" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="B139" s="77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" s="77">
         <v>0</v>
@@ -9011,10 +9039,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B140" s="77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C140" s="77">
         <v>0</v>
@@ -9022,10 +9050,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="72" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B141" s="77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C141" s="77">
         <v>0</v>
@@ -9033,10 +9061,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="72" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="B142" s="77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C142" s="77">
         <v>0</v>
@@ -9044,32 +9072,32 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B143" s="77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143" s="77">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="72" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B144" s="77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" s="77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="72" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B145" s="77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C145" s="77">
         <v>0</v>
@@ -9077,67 +9105,56 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="72" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="B146" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="72" t="s">
-        <v>92</v>
+      <c r="A147" s="76" t="s">
+        <v>338</v>
       </c>
       <c r="B147" s="77">
-        <v>3</v>
-      </c>
-      <c r="C147" s="77">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C147" s="78">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="76" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="B148" s="77">
-        <v>45</v>
-      </c>
-      <c r="C148" s="78">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C148" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="76" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="B149" s="77">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C149" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="76" t="s">
-        <v>340</v>
-      </c>
-      <c r="B150" s="77">
-        <v>5</v>
-      </c>
-      <c r="C150" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="69" t="s">
+      <c r="A150" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="B151" s="80">
+      <c r="B150" s="80">
         <v>7480</v>
       </c>
-      <c r="C151" s="80">
+      <c r="C150" s="80">
         <v>496</v>
       </c>
     </row>
@@ -52115,7 +52132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EDE0D-CC81-4D9C-A8FE-2B795C716949}">
   <dimension ref="A1:C307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+    <sheetView topLeftCell="A281" workbookViewId="0">
       <selection activeCell="J299" sqref="J299"/>
     </sheetView>
   </sheetViews>
@@ -55009,6 +55026,2984 @@
       <c r="C307" s="69">
         <f>SUM(C2:C306)</f>
         <v>2049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0078CE00-7E5E-4B6F-B2CF-5EF0E35477BC}">
+  <dimension ref="A1:C315"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="F312" sqref="F312"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>451</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>279</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>92</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>452</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>488</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>453</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>466</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>425</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>489</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>440</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>306</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>344</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>403</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>419</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>205</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>420</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>490</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>454</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>491</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>492</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>155</v>
+      </c>
+      <c r="C79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>272</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>455</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>414</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>105</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>456</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>441</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>296</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>354</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>326</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99">
+        <v>69</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100">
+        <v>121</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>458</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>493</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>503</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108">
+        <v>159</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>666</v>
+      </c>
+      <c r="C109">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>415</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>467</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>24</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>287</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>411</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>482</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>327</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>302</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>404</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>388</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123">
+        <v>24</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>468</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>75</v>
+      </c>
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127">
+        <v>103</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130">
+        <v>115</v>
+      </c>
+      <c r="C130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132">
+        <v>111</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>442</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>459</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>52</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>483</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>426</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>120</v>
+      </c>
+      <c r="B142">
+        <v>17</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>259</v>
+      </c>
+      <c r="B143">
+        <v>31</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>225</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147">
+        <v>42</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>298</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>460</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>261</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>177</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>93</v>
+      </c>
+      <c r="C153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>405</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>461</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>389</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>462</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>79</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>80</v>
+      </c>
+      <c r="B161">
+        <v>29</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>494</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>309</v>
+      </c>
+      <c r="B163">
+        <v>16</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>443</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>303</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>310</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169">
+        <v>29</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170">
+        <v>12</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>463</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173">
+        <v>201</v>
+      </c>
+      <c r="C173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>416</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>390</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>444</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>417</v>
+      </c>
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>202</v>
+      </c>
+      <c r="B178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>229</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180">
+        <v>218</v>
+      </c>
+      <c r="C180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181">
+        <v>24</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>330</v>
+      </c>
+      <c r="B182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>311</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>204</v>
+      </c>
+      <c r="B184">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>469</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>331</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>332</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>333</v>
+      </c>
+      <c r="B188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>421</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>312</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>156</v>
+      </c>
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>495</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>263</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>179</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195">
+        <v>701</v>
+      </c>
+      <c r="C195">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>264</v>
+      </c>
+      <c r="B196">
+        <v>19</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>445</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>504</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>505</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>265</v>
+      </c>
+      <c r="B200">
+        <v>22</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>496</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>54</v>
+      </c>
+      <c r="B202">
+        <v>15</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>391</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>334</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>266</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>470</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>55</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>18</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>406</v>
+      </c>
+      <c r="B209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>313</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>206</v>
+      </c>
+      <c r="B211">
+        <v>11</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>233</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>471</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>497</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>56</v>
+      </c>
+      <c r="B216">
+        <v>67</v>
+      </c>
+      <c r="C216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>412</v>
+      </c>
+      <c r="B217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>84</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>472</v>
+      </c>
+      <c r="B219">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>335</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>447</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>18</v>
+      </c>
+      <c r="B223">
+        <v>51</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>314</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>407</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>267</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>484</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>85</v>
+      </c>
+      <c r="B229">
+        <v>130</v>
+      </c>
+      <c r="C229">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>336</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>473</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>506</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233">
+        <v>19</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>207</v>
+      </c>
+      <c r="B234">
+        <v>11</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>183</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>422</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>418</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>392</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>498</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>393</v>
+      </c>
+      <c r="B240">
+        <v>11</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>499</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242">
+        <v>60</v>
+      </c>
+      <c r="C242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>42</v>
+      </c>
+      <c r="B243">
+        <v>111</v>
+      </c>
+      <c r="C243">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>315</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>337</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246">
+        <v>17</v>
+      </c>
+      <c r="C246">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>507</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>208</v>
+      </c>
+      <c r="B248">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>448</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>508</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>209</v>
+      </c>
+      <c r="B251">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>133</v>
+      </c>
+      <c r="B252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>269</v>
+      </c>
+      <c r="B253">
+        <v>6</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>161</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>474</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>210</v>
+      </c>
+      <c r="B256">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>485</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>376</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>87</v>
+      </c>
+      <c r="B259">
+        <v>10</v>
+      </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>292</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>449</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262">
+        <v>108</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263">
+        <v>468</v>
+      </c>
+      <c r="C263">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>394</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>500</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>475</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>476</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>58</v>
+      </c>
+      <c r="B268">
+        <v>534</v>
+      </c>
+      <c r="C268">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269">
+        <v>616</v>
+      </c>
+      <c r="C269">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>25</v>
+      </c>
+      <c r="B270">
+        <v>174</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>211</v>
+      </c>
+      <c r="B271">
+        <v>14</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>395</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>88</v>
+      </c>
+      <c r="B274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>26</v>
+      </c>
+      <c r="B275">
+        <v>85</v>
+      </c>
+      <c r="C275">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>27</v>
+      </c>
+      <c r="B276">
+        <v>202</v>
+      </c>
+      <c r="C276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>423</v>
+      </c>
+      <c r="B277">
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>163</v>
+      </c>
+      <c r="B278">
+        <v>8</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>271</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>28</v>
+      </c>
+      <c r="B280">
+        <v>16638</v>
+      </c>
+      <c r="C280">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>59</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>212</v>
+      </c>
+      <c r="B282">
+        <v>23</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>29</v>
+      </c>
+      <c r="B283">
+        <v>32</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>450</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>89</v>
+      </c>
+      <c r="B285">
+        <v>150</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>509</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>464</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>408</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>272</v>
+      </c>
+      <c r="B289">
+        <v>11</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>477</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>43</v>
+      </c>
+      <c r="B291">
+        <v>117</v>
+      </c>
+      <c r="C291">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>213</v>
+      </c>
+      <c r="B292">
+        <v>31</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293">
+        <v>151</v>
+      </c>
+      <c r="C293">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>31</v>
+      </c>
+      <c r="B294">
+        <v>189</v>
+      </c>
+      <c r="C294">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>396</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>242</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>413</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>409</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>410</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>33</v>
+      </c>
+      <c r="B300">
+        <v>14</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>32</v>
+      </c>
+      <c r="B301">
+        <v>35</v>
+      </c>
+      <c r="C301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>187</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>478</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>273</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>501</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>34</v>
+      </c>
+      <c r="B307">
+        <v>25</v>
+      </c>
+      <c r="C307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>510</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>35</v>
+      </c>
+      <c r="B309">
+        <v>11</v>
+      </c>
+      <c r="C309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>316</v>
+      </c>
+      <c r="B310">
+        <v>13</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>90</v>
+      </c>
+      <c r="B311">
+        <v>29</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>424</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>147</v>
+      </c>
+      <c r="B313">
+        <v>12</v>
+      </c>
+      <c r="C313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>92</v>
+      </c>
+      <c r="B314">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B315" s="69">
+        <f>SUM(B2:B314)</f>
+        <v>26158</v>
+      </c>
+      <c r="C315" s="69">
+        <f>SUM(C2:C314)</f>
+        <v>2247</v>
       </c>
     </row>
   </sheetData>

--- a/data/Municipios informacoes dia.xlsx
+++ b/data/Municipios informacoes dia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Covid_19\Covid_19\Arquivos diarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65171767-3185-41D1-8D98-A03E8708C6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC640917-36AD-4EE1-BBA5-AC84F06B0AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="20" activeTab="31" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="22" activeTab="33" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
   </bookViews>
   <sheets>
     <sheet name="26_mar" sheetId="2" r:id="rId1"/>
@@ -45,6 +45,8 @@
     <sheet name="27_abr" sheetId="32" r:id="rId30"/>
     <sheet name="28_abr" sheetId="33" r:id="rId31"/>
     <sheet name="29_abr" sheetId="34" r:id="rId32"/>
+    <sheet name="30_abr" sheetId="35" r:id="rId33"/>
+    <sheet name="01_mai" sheetId="36" r:id="rId34"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08_abr'!$H$58:$I$58</definedName>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6428" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7088" uniqueCount="530">
   <si>
     <t>Casos confirmados</t>
   </si>
@@ -1603,12 +1605,69 @@
   <si>
     <t>VARGEM</t>
   </si>
+  <si>
+    <t>ADOLFO</t>
+  </si>
+  <si>
+    <t>ANHEMBI</t>
+  </si>
+  <si>
+    <t>CAJOBI</t>
+  </si>
+  <si>
+    <t>CHARQUEADA</t>
+  </si>
+  <si>
+    <t>IBITINGA</t>
+  </si>
+  <si>
+    <t>NOVA GUATAPORANGA</t>
+  </si>
+  <si>
+    <t>SALTO GRANDE</t>
+  </si>
+  <si>
+    <t>SANTA MARIA DA SERRA</t>
+  </si>
+  <si>
+    <t>TIMBURI</t>
+  </si>
+  <si>
+    <t>municipios</t>
+  </si>
+  <si>
+    <t>CONCHAL</t>
+  </si>
+  <si>
+    <t>COROADOS</t>
+  </si>
+  <si>
+    <t>IBATE</t>
+  </si>
+  <si>
+    <t>ITAI</t>
+  </si>
+  <si>
+    <t>JACUPIRANGA</t>
+  </si>
+  <si>
+    <t>PEDRINHAS PAULISTA</t>
+  </si>
+  <si>
+    <t>TARUMA</t>
+  </si>
+  <si>
+    <t>TIETE</t>
+  </si>
+  <si>
+    <t>VARGEM GRANDE DO SUL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1757,6 +1816,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1927,12 +2019,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2113,10 +2206,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DDAD1717-6536-404C-B253-D032237D45C7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{18B48D51-DDC5-4F27-8DD4-181E1D4AD6B8}"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -55037,7 +55152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0078CE00-7E5E-4B6F-B2CF-5EF0E35477BC}">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+    <sheetView topLeftCell="A288" workbookViewId="0">
       <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
@@ -58004,6 +58119,6733 @@
       <c r="C315" s="69">
         <f>SUM(C2:C314)</f>
         <v>2247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933C149C-754E-40BC-85B9-5C7DB0D3E616}">
+  <dimension ref="A1:C328"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="90">
+        <v>5</v>
+      </c>
+      <c r="C2" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3" s="90">
+        <v>1</v>
+      </c>
+      <c r="C3" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="90">
+        <v>15</v>
+      </c>
+      <c r="C4" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="90">
+        <v>1</v>
+      </c>
+      <c r="C5" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="90">
+        <v>4</v>
+      </c>
+      <c r="C6" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="90">
+        <v>1</v>
+      </c>
+      <c r="C7" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="90">
+        <v>15</v>
+      </c>
+      <c r="C8" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="90">
+        <v>1</v>
+      </c>
+      <c r="C9" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="90">
+        <v>1</v>
+      </c>
+      <c r="C10" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="90">
+        <v>51</v>
+      </c>
+      <c r="C11" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="90">
+        <v>7</v>
+      </c>
+      <c r="C12" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="90">
+        <v>10</v>
+      </c>
+      <c r="C13" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="90">
+        <v>11</v>
+      </c>
+      <c r="C14" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" s="90">
+        <v>2</v>
+      </c>
+      <c r="C15" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="89" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16" s="90">
+        <v>2</v>
+      </c>
+      <c r="C16" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="90">
+        <v>1</v>
+      </c>
+      <c r="C17" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="90">
+        <v>1</v>
+      </c>
+      <c r="C18" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="90">
+        <v>3</v>
+      </c>
+      <c r="C19" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="90">
+        <v>63</v>
+      </c>
+      <c r="C20" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="90">
+        <v>2</v>
+      </c>
+      <c r="C21" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="90">
+        <v>9</v>
+      </c>
+      <c r="C22" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="90">
+        <v>72</v>
+      </c>
+      <c r="C23" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="90">
+        <v>14</v>
+      </c>
+      <c r="C24" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="89" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25" s="90">
+        <v>1</v>
+      </c>
+      <c r="C25" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="90">
+        <v>4</v>
+      </c>
+      <c r="C26" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="90">
+        <v>1</v>
+      </c>
+      <c r="C27" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="90">
+        <v>54</v>
+      </c>
+      <c r="C28" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="90">
+        <v>13</v>
+      </c>
+      <c r="C29" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="90">
+        <v>34</v>
+      </c>
+      <c r="C30" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="B31" s="90">
+        <v>1</v>
+      </c>
+      <c r="C31" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="89" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="90">
+        <v>1</v>
+      </c>
+      <c r="C32" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="90">
+        <v>21</v>
+      </c>
+      <c r="C33" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="90">
+        <v>2</v>
+      </c>
+      <c r="C34" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" s="90">
+        <v>1</v>
+      </c>
+      <c r="C35" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" s="90">
+        <v>7</v>
+      </c>
+      <c r="C36" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="90">
+        <v>1</v>
+      </c>
+      <c r="C37" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="90">
+        <v>47</v>
+      </c>
+      <c r="C38" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="90">
+        <v>313</v>
+      </c>
+      <c r="C39" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="90">
+        <v>2</v>
+      </c>
+      <c r="C40" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="90">
+        <v>103</v>
+      </c>
+      <c r="C41" s="91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="90">
+        <v>6</v>
+      </c>
+      <c r="C42" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="89" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" s="90">
+        <v>1</v>
+      </c>
+      <c r="C43" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="90">
+        <v>21</v>
+      </c>
+      <c r="C44" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45" s="90">
+        <v>6</v>
+      </c>
+      <c r="C45" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="89" t="s">
+        <v>488</v>
+      </c>
+      <c r="B46" s="90">
+        <v>1</v>
+      </c>
+      <c r="C46" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="90">
+        <v>10</v>
+      </c>
+      <c r="C47" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="89" t="s">
+        <v>465</v>
+      </c>
+      <c r="B48" s="90">
+        <v>2</v>
+      </c>
+      <c r="C48" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="89" t="s">
+        <v>453</v>
+      </c>
+      <c r="B49" s="90">
+        <v>1</v>
+      </c>
+      <c r="C49" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="89" t="s">
+        <v>466</v>
+      </c>
+      <c r="B50" s="90">
+        <v>4</v>
+      </c>
+      <c r="C50" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="90">
+        <v>67</v>
+      </c>
+      <c r="C51" s="91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="90">
+        <v>65</v>
+      </c>
+      <c r="C52" s="91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="90">
+        <v>9</v>
+      </c>
+      <c r="C53" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="89" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="90">
+        <v>5</v>
+      </c>
+      <c r="C54" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="B55" s="90">
+        <v>2</v>
+      </c>
+      <c r="C55" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="90">
+        <v>11</v>
+      </c>
+      <c r="C56" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="90">
+        <v>3</v>
+      </c>
+      <c r="C57" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="89" t="s">
+        <v>489</v>
+      </c>
+      <c r="B58" s="90">
+        <v>1</v>
+      </c>
+      <c r="C58" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" s="90">
+        <v>1</v>
+      </c>
+      <c r="C59" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="90">
+        <v>87</v>
+      </c>
+      <c r="C60" s="91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="90">
+        <v>34</v>
+      </c>
+      <c r="C61" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="B62" s="90">
+        <v>4</v>
+      </c>
+      <c r="C62" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="89" t="s">
+        <v>513</v>
+      </c>
+      <c r="B63" s="90">
+        <v>1</v>
+      </c>
+      <c r="C63" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" s="90">
+        <v>2</v>
+      </c>
+      <c r="C64" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="90">
+        <v>369</v>
+      </c>
+      <c r="C65" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="B66" s="90">
+        <v>20</v>
+      </c>
+      <c r="C66" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="89" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" s="90">
+        <v>3</v>
+      </c>
+      <c r="C67" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="89" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68" s="90">
+        <v>6</v>
+      </c>
+      <c r="C68" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" s="90">
+        <v>5</v>
+      </c>
+      <c r="C69" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="89" t="s">
+        <v>419</v>
+      </c>
+      <c r="B70" s="90">
+        <v>2</v>
+      </c>
+      <c r="C70" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="90">
+        <v>27</v>
+      </c>
+      <c r="C71" s="91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="90">
+        <v>230</v>
+      </c>
+      <c r="C72" s="91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="B73" s="90">
+        <v>3</v>
+      </c>
+      <c r="C73" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="90">
+        <v>15</v>
+      </c>
+      <c r="C74" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="90">
+        <v>1</v>
+      </c>
+      <c r="C75" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="89" t="s">
+        <v>514</v>
+      </c>
+      <c r="B76" s="90">
+        <v>1</v>
+      </c>
+      <c r="C76" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="89" t="s">
+        <v>420</v>
+      </c>
+      <c r="B77" s="90">
+        <v>1</v>
+      </c>
+      <c r="C77" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="B78" s="90">
+        <v>1</v>
+      </c>
+      <c r="C78" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="B79" s="90">
+        <v>1</v>
+      </c>
+      <c r="C79" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="89" t="s">
+        <v>454</v>
+      </c>
+      <c r="B80" s="90">
+        <v>1</v>
+      </c>
+      <c r="C80" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="89" t="s">
+        <v>491</v>
+      </c>
+      <c r="B81" s="90">
+        <v>1</v>
+      </c>
+      <c r="C81" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="89" t="s">
+        <v>492</v>
+      </c>
+      <c r="B82" s="90">
+        <v>2</v>
+      </c>
+      <c r="C82" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="90">
+        <v>187</v>
+      </c>
+      <c r="C83" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="90">
+        <v>8</v>
+      </c>
+      <c r="C84" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="89" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85" s="90">
+        <v>5</v>
+      </c>
+      <c r="C85" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="B86" s="90">
+        <v>37</v>
+      </c>
+      <c r="C86" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="90">
+        <v>290</v>
+      </c>
+      <c r="C87" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="89" t="s">
+        <v>455</v>
+      </c>
+      <c r="B88" s="90">
+        <v>1</v>
+      </c>
+      <c r="C88" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="90">
+        <v>7</v>
+      </c>
+      <c r="C89" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="89" t="s">
+        <v>352</v>
+      </c>
+      <c r="B90" s="90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" s="90">
+        <v>2</v>
+      </c>
+      <c r="C91" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="89" t="s">
+        <v>414</v>
+      </c>
+      <c r="B92" s="90">
+        <v>1</v>
+      </c>
+      <c r="C92" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="90">
+        <v>118</v>
+      </c>
+      <c r="C93" s="91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="90">
+        <v>28</v>
+      </c>
+      <c r="C94" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="89" t="s">
+        <v>456</v>
+      </c>
+      <c r="B95" s="90">
+        <v>6</v>
+      </c>
+      <c r="C95" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="89" t="s">
+        <v>441</v>
+      </c>
+      <c r="B96" s="90">
+        <v>1</v>
+      </c>
+      <c r="C96" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" s="90">
+        <v>1</v>
+      </c>
+      <c r="C97" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="89" t="s">
+        <v>457</v>
+      </c>
+      <c r="B98" s="90">
+        <v>1</v>
+      </c>
+      <c r="C98" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="89" t="s">
+        <v>354</v>
+      </c>
+      <c r="B99" s="90">
+        <v>6</v>
+      </c>
+      <c r="C99" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="B100" s="90">
+        <v>10</v>
+      </c>
+      <c r="C100" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="90">
+        <v>98</v>
+      </c>
+      <c r="C101" s="91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="90">
+        <v>18</v>
+      </c>
+      <c r="C102" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="90">
+        <v>80</v>
+      </c>
+      <c r="C103" s="91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="90">
+        <v>131</v>
+      </c>
+      <c r="C104" s="91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" s="90">
+        <v>4</v>
+      </c>
+      <c r="C105" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="89" t="s">
+        <v>458</v>
+      </c>
+      <c r="B106" s="90">
+        <v>2</v>
+      </c>
+      <c r="C106" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="B107" s="90">
+        <v>1</v>
+      </c>
+      <c r="C107" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="90">
+        <v>6</v>
+      </c>
+      <c r="C108" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="90">
+        <v>4</v>
+      </c>
+      <c r="C109" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B110" s="90">
+        <v>3</v>
+      </c>
+      <c r="C110" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="89" t="s">
+        <v>503</v>
+      </c>
+      <c r="B111" s="90">
+        <v>1</v>
+      </c>
+      <c r="C111" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="90">
+        <v>162</v>
+      </c>
+      <c r="C112" s="91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="90">
+        <v>737</v>
+      </c>
+      <c r="C113" s="91">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="89" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" s="90">
+        <v>1</v>
+      </c>
+      <c r="C114" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="89" t="s">
+        <v>467</v>
+      </c>
+      <c r="B115" s="90">
+        <v>2</v>
+      </c>
+      <c r="C115" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="90">
+        <v>26</v>
+      </c>
+      <c r="C116" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="B117" s="90">
+        <v>2</v>
+      </c>
+      <c r="C117" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="89" t="s">
+        <v>515</v>
+      </c>
+      <c r="B118" s="90">
+        <v>1</v>
+      </c>
+      <c r="C118" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="90">
+        <v>7</v>
+      </c>
+      <c r="C119" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="89" t="s">
+        <v>411</v>
+      </c>
+      <c r="B120" s="90">
+        <v>1</v>
+      </c>
+      <c r="C120" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="B121" s="90">
+        <v>2</v>
+      </c>
+      <c r="C121" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" s="90">
+        <v>2</v>
+      </c>
+      <c r="C122" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="90">
+        <v>5</v>
+      </c>
+      <c r="C123" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="B124" s="90">
+        <v>8</v>
+      </c>
+      <c r="C124" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="90">
+        <v>14</v>
+      </c>
+      <c r="C125" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="B126" s="90">
+        <v>3</v>
+      </c>
+      <c r="C126" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="90">
+        <v>7</v>
+      </c>
+      <c r="C127" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" s="90">
+        <v>25</v>
+      </c>
+      <c r="C128" s="91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="90">
+        <v>1</v>
+      </c>
+      <c r="C129" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="89" t="s">
+        <v>468</v>
+      </c>
+      <c r="B130" s="90">
+        <v>5</v>
+      </c>
+      <c r="C130" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="90">
+        <v>17</v>
+      </c>
+      <c r="C131" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="90">
+        <v>120</v>
+      </c>
+      <c r="C132" s="91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" s="90">
+        <v>14</v>
+      </c>
+      <c r="C133" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="B134" s="90">
+        <v>10</v>
+      </c>
+      <c r="C134" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" s="90">
+        <v>126</v>
+      </c>
+      <c r="C135" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" s="90">
+        <v>18</v>
+      </c>
+      <c r="C136" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="90">
+        <v>130</v>
+      </c>
+      <c r="C137" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="90">
+        <v>2</v>
+      </c>
+      <c r="C138" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="89" t="s">
+        <v>442</v>
+      </c>
+      <c r="B139" s="90">
+        <v>2</v>
+      </c>
+      <c r="C139" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" s="90">
+        <v>8</v>
+      </c>
+      <c r="C140" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" s="90">
+        <v>1</v>
+      </c>
+      <c r="C141" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="B142" s="90">
+        <v>1</v>
+      </c>
+      <c r="C142" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143" s="90">
+        <v>20</v>
+      </c>
+      <c r="C143" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="90">
+        <v>5</v>
+      </c>
+      <c r="C144" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="B145" s="90">
+        <v>1</v>
+      </c>
+      <c r="C145" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="B146" s="90">
+        <v>2</v>
+      </c>
+      <c r="C146" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" s="90">
+        <v>17</v>
+      </c>
+      <c r="C147" s="91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B148" s="90">
+        <v>33</v>
+      </c>
+      <c r="C148" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" s="90">
+        <v>11</v>
+      </c>
+      <c r="C149" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="90">
+        <v>7</v>
+      </c>
+      <c r="C150" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B151" s="90">
+        <v>4</v>
+      </c>
+      <c r="C151" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" s="90">
+        <v>47</v>
+      </c>
+      <c r="C152" s="91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="B153" s="90">
+        <v>6</v>
+      </c>
+      <c r="C153" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="89" t="s">
+        <v>460</v>
+      </c>
+      <c r="B154" s="90">
+        <v>1</v>
+      </c>
+      <c r="C154" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="90">
+        <v>14</v>
+      </c>
+      <c r="C155" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B156" s="90">
+        <v>2</v>
+      </c>
+      <c r="C156" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" s="90">
+        <v>3</v>
+      </c>
+      <c r="C157" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="90">
+        <v>152</v>
+      </c>
+      <c r="C158" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="B159" s="90">
+        <v>2</v>
+      </c>
+      <c r="C159" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="89" t="s">
+        <v>461</v>
+      </c>
+      <c r="B160" s="90">
+        <v>1</v>
+      </c>
+      <c r="C160" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="B161" s="90">
+        <v>4</v>
+      </c>
+      <c r="C161" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="B162" s="90">
+        <v>5</v>
+      </c>
+      <c r="C162" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="89" t="s">
+        <v>462</v>
+      </c>
+      <c r="B163" s="90">
+        <v>2</v>
+      </c>
+      <c r="C163" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="B164" s="90">
+        <v>6</v>
+      </c>
+      <c r="C164" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B165" s="90">
+        <v>6</v>
+      </c>
+      <c r="C165" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B166" s="90">
+        <v>35</v>
+      </c>
+      <c r="C166" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="89" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" s="90">
+        <v>3</v>
+      </c>
+      <c r="C167" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="B168" s="90">
+        <v>16</v>
+      </c>
+      <c r="C168" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="B169" s="90">
+        <v>7</v>
+      </c>
+      <c r="C169" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="90">
+        <v>10</v>
+      </c>
+      <c r="C170" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="89" t="s">
+        <v>443</v>
+      </c>
+      <c r="B171" s="90">
+        <v>4</v>
+      </c>
+      <c r="C171" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="B172" s="90">
+        <v>1</v>
+      </c>
+      <c r="C172" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="B173" s="90">
+        <v>7</v>
+      </c>
+      <c r="C173" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="90">
+        <v>32</v>
+      </c>
+      <c r="C174" s="91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="90">
+        <v>12</v>
+      </c>
+      <c r="C175" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="B176" s="90">
+        <v>2</v>
+      </c>
+      <c r="C176" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B177" s="90">
+        <v>7</v>
+      </c>
+      <c r="C177" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="90">
+        <v>223</v>
+      </c>
+      <c r="C178" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="89" t="s">
+        <v>416</v>
+      </c>
+      <c r="B179" s="90">
+        <v>1</v>
+      </c>
+      <c r="C179" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="B180" s="90">
+        <v>4</v>
+      </c>
+      <c r="C180" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="B181" s="90">
+        <v>4</v>
+      </c>
+      <c r="C181" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="89" t="s">
+        <v>417</v>
+      </c>
+      <c r="B182" s="90">
+        <v>7</v>
+      </c>
+      <c r="C182" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B183" s="90">
+        <v>7</v>
+      </c>
+      <c r="C183" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="B184" s="90">
+        <v>4</v>
+      </c>
+      <c r="C184" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185" s="90">
+        <v>244</v>
+      </c>
+      <c r="C185" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" s="90">
+        <v>23</v>
+      </c>
+      <c r="C186" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" s="90">
+        <v>4</v>
+      </c>
+      <c r="C187" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="89" t="s">
+        <v>367</v>
+      </c>
+      <c r="B188" s="90">
+        <v>4</v>
+      </c>
+      <c r="C188" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="B189" s="90">
+        <v>11</v>
+      </c>
+      <c r="C189" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="B190" s="90">
+        <v>13</v>
+      </c>
+      <c r="C190" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="89" t="s">
+        <v>469</v>
+      </c>
+      <c r="B191" s="90">
+        <v>1</v>
+      </c>
+      <c r="C191" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="B192" s="90">
+        <v>5</v>
+      </c>
+      <c r="C192" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="B193" s="90">
+        <v>1</v>
+      </c>
+      <c r="C193" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="89" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" s="90">
+        <v>7</v>
+      </c>
+      <c r="C194" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="89" t="s">
+        <v>421</v>
+      </c>
+      <c r="B195" s="90">
+        <v>5</v>
+      </c>
+      <c r="C195" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="B196" s="90">
+        <v>1</v>
+      </c>
+      <c r="C196" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="89" t="s">
+        <v>516</v>
+      </c>
+      <c r="B197" s="90">
+        <v>1</v>
+      </c>
+      <c r="C197" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B198" s="90">
+        <v>8</v>
+      </c>
+      <c r="C198" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="89" t="s">
+        <v>495</v>
+      </c>
+      <c r="B199" s="90">
+        <v>1</v>
+      </c>
+      <c r="C199" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A200" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B200" s="90">
+        <v>5</v>
+      </c>
+      <c r="C200" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B201" s="90">
+        <v>4</v>
+      </c>
+      <c r="C201" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="90">
+        <v>762</v>
+      </c>
+      <c r="C202" s="91">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B203" s="90">
+        <v>19</v>
+      </c>
+      <c r="C203" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="B204" s="90">
+        <v>1</v>
+      </c>
+      <c r="C204" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="B205" s="90">
+        <v>1</v>
+      </c>
+      <c r="C205" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="89" t="s">
+        <v>505</v>
+      </c>
+      <c r="B206" s="90">
+        <v>2</v>
+      </c>
+      <c r="C206" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" s="90">
+        <v>29</v>
+      </c>
+      <c r="C207" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="B208" s="90">
+        <v>1</v>
+      </c>
+      <c r="C208" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A209" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B209" s="90">
+        <v>16</v>
+      </c>
+      <c r="C209" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="B210" s="90">
+        <v>1</v>
+      </c>
+      <c r="C210" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="B211" s="90">
+        <v>2</v>
+      </c>
+      <c r="C211" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="B212" s="90">
+        <v>2</v>
+      </c>
+      <c r="C212" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="89" t="s">
+        <v>470</v>
+      </c>
+      <c r="B213" s="90">
+        <v>2</v>
+      </c>
+      <c r="C213" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B214" s="90">
+        <v>2</v>
+      </c>
+      <c r="C214" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="B215" s="90">
+        <v>19</v>
+      </c>
+      <c r="C215" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="B216" s="90">
+        <v>8</v>
+      </c>
+      <c r="C216" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="B217" s="90">
+        <v>4</v>
+      </c>
+      <c r="C217" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="89" t="s">
+        <v>206</v>
+      </c>
+      <c r="B218" s="90">
+        <v>11</v>
+      </c>
+      <c r="C218" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B219" s="90">
+        <v>6</v>
+      </c>
+      <c r="C219" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="89" t="s">
+        <v>471</v>
+      </c>
+      <c r="B220" s="90">
+        <v>1</v>
+      </c>
+      <c r="C220" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="89" t="s">
+        <v>497</v>
+      </c>
+      <c r="B221" s="90">
+        <v>2</v>
+      </c>
+      <c r="C221" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="89" t="s">
+        <v>372</v>
+      </c>
+      <c r="B222" s="90">
+        <v>4</v>
+      </c>
+      <c r="C222" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B223" s="90">
+        <v>89</v>
+      </c>
+      <c r="C223" s="91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="89" t="s">
+        <v>412</v>
+      </c>
+      <c r="B224" s="90">
+        <v>10</v>
+      </c>
+      <c r="C224" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B225" s="90">
+        <v>1</v>
+      </c>
+      <c r="C225" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" s="89" t="s">
+        <v>472</v>
+      </c>
+      <c r="B226" s="90">
+        <v>14</v>
+      </c>
+      <c r="C226" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="B227" s="90">
+        <v>11</v>
+      </c>
+      <c r="C227" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="89" t="s">
+        <v>335</v>
+      </c>
+      <c r="B228" s="90">
+        <v>5</v>
+      </c>
+      <c r="C228" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A229" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="B229" s="90">
+        <v>1</v>
+      </c>
+      <c r="C229" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="90">
+        <v>55</v>
+      </c>
+      <c r="C230" s="91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="B231" s="90">
+        <v>4</v>
+      </c>
+      <c r="C231" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A232" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="B232" s="90">
+        <v>3</v>
+      </c>
+      <c r="C232" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B233" s="91">
+        <v>8</v>
+      </c>
+      <c r="C233" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="B234" s="90">
+        <v>3</v>
+      </c>
+      <c r="C234" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A235" s="89" t="s">
+        <v>484</v>
+      </c>
+      <c r="B235" s="90">
+        <v>1</v>
+      </c>
+      <c r="C235" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A236" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B236" s="90">
+        <v>141</v>
+      </c>
+      <c r="C236" s="91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A237" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="B237" s="90">
+        <v>2</v>
+      </c>
+      <c r="C237" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="89" t="s">
+        <v>473</v>
+      </c>
+      <c r="B238" s="90">
+        <v>1</v>
+      </c>
+      <c r="C238" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="89" t="s">
+        <v>506</v>
+      </c>
+      <c r="B239" s="90">
+        <v>1</v>
+      </c>
+      <c r="C239" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B240" s="90">
+        <v>21</v>
+      </c>
+      <c r="C240" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B241" s="90">
+        <v>11</v>
+      </c>
+      <c r="C241" s="91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A242" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B242" s="90">
+        <v>4</v>
+      </c>
+      <c r="C242" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="89" t="s">
+        <v>422</v>
+      </c>
+      <c r="B243" s="90">
+        <v>3</v>
+      </c>
+      <c r="C243" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="89" t="s">
+        <v>418</v>
+      </c>
+      <c r="B244" s="90">
+        <v>2</v>
+      </c>
+      <c r="C244" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="B245" s="90">
+        <v>3</v>
+      </c>
+      <c r="C245" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="89" t="s">
+        <v>498</v>
+      </c>
+      <c r="B246" s="90">
+        <v>1</v>
+      </c>
+      <c r="C246" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="89" t="s">
+        <v>393</v>
+      </c>
+      <c r="B247" s="90">
+        <v>11</v>
+      </c>
+      <c r="C247" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="89" t="s">
+        <v>499</v>
+      </c>
+      <c r="B248" s="90">
+        <v>1</v>
+      </c>
+      <c r="C248" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" s="90">
+        <v>63</v>
+      </c>
+      <c r="C249" s="91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B250" s="90">
+        <v>113</v>
+      </c>
+      <c r="C250" s="91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="B251" s="90">
+        <v>1</v>
+      </c>
+      <c r="C251" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="89" t="s">
+        <v>337</v>
+      </c>
+      <c r="B252" s="90">
+        <v>1</v>
+      </c>
+      <c r="C252" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="90">
+        <v>18</v>
+      </c>
+      <c r="C253" s="91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="89" t="s">
+        <v>507</v>
+      </c>
+      <c r="B254" s="90">
+        <v>1</v>
+      </c>
+      <c r="C254" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B255" s="90">
+        <v>24</v>
+      </c>
+      <c r="C255" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="B256" s="90">
+        <v>2</v>
+      </c>
+      <c r="C256" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="89" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" s="90">
+        <v>1</v>
+      </c>
+      <c r="C257" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="B258" s="90">
+        <v>8</v>
+      </c>
+      <c r="C258" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B259" s="90">
+        <v>8</v>
+      </c>
+      <c r="C259" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="89" t="s">
+        <v>517</v>
+      </c>
+      <c r="B260" s="90">
+        <v>1</v>
+      </c>
+      <c r="C260" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="B261" s="90">
+        <v>6</v>
+      </c>
+      <c r="C261" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B262" s="90">
+        <v>2</v>
+      </c>
+      <c r="C262" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="B263" s="90">
+        <v>1</v>
+      </c>
+      <c r="C263" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B264" s="90">
+        <v>15</v>
+      </c>
+      <c r="C264" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="B265" s="90">
+        <v>4</v>
+      </c>
+      <c r="C265" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="89" t="s">
+        <v>376</v>
+      </c>
+      <c r="B266" s="90">
+        <v>1</v>
+      </c>
+      <c r="C266" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B267" s="90">
+        <v>13</v>
+      </c>
+      <c r="C267" s="91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="B268" s="90">
+        <v>5</v>
+      </c>
+      <c r="C268" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="89" t="s">
+        <v>518</v>
+      </c>
+      <c r="B269" s="90">
+        <v>1</v>
+      </c>
+      <c r="C269" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="89" t="s">
+        <v>449</v>
+      </c>
+      <c r="B270" s="90">
+        <v>1</v>
+      </c>
+      <c r="C270" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="90">
+        <v>133</v>
+      </c>
+      <c r="C271" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="90">
+        <v>519</v>
+      </c>
+      <c r="C272" s="91">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="89" t="s">
+        <v>394</v>
+      </c>
+      <c r="B273" s="90">
+        <v>1</v>
+      </c>
+      <c r="C273" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A274" s="89" t="s">
+        <v>500</v>
+      </c>
+      <c r="B274" s="90">
+        <v>1</v>
+      </c>
+      <c r="C274" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A275" s="89" t="s">
+        <v>475</v>
+      </c>
+      <c r="B275" s="90">
+        <v>2</v>
+      </c>
+      <c r="C275" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="89" t="s">
+        <v>476</v>
+      </c>
+      <c r="B276" s="90">
+        <v>2</v>
+      </c>
+      <c r="C276" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B277" s="90">
+        <v>567</v>
+      </c>
+      <c r="C277" s="91">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A278" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="90">
+        <v>682</v>
+      </c>
+      <c r="C278" s="91">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="90">
+        <v>185</v>
+      </c>
+      <c r="C279" s="91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A280" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B280" s="90">
+        <v>14</v>
+      </c>
+      <c r="C280" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="B281" s="90">
+        <v>16</v>
+      </c>
+      <c r="C281" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="B282" s="90">
+        <v>3</v>
+      </c>
+      <c r="C282" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B283" s="90">
+        <v>4</v>
+      </c>
+      <c r="C283" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B284" s="90">
+        <v>88</v>
+      </c>
+      <c r="C284" s="91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B285" s="90">
+        <v>219</v>
+      </c>
+      <c r="C285" s="91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="B286" s="90">
+        <v>6</v>
+      </c>
+      <c r="C286" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B287" s="90">
+        <v>8</v>
+      </c>
+      <c r="C287" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A288" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="B288" s="90">
+        <v>7</v>
+      </c>
+      <c r="C288" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A289" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="90">
+        <v>18149</v>
+      </c>
+      <c r="C289" s="91">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B290" s="90">
+        <v>17</v>
+      </c>
+      <c r="C290" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A291" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="B291" s="90">
+        <v>26</v>
+      </c>
+      <c r="C291" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" s="90">
+        <v>32</v>
+      </c>
+      <c r="C292" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="89" t="s">
+        <v>450</v>
+      </c>
+      <c r="B293" s="90">
+        <v>1</v>
+      </c>
+      <c r="C293" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B294" s="90">
+        <v>164</v>
+      </c>
+      <c r="C294" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A295" s="89" t="s">
+        <v>509</v>
+      </c>
+      <c r="B295" s="90">
+        <v>1</v>
+      </c>
+      <c r="C295" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A296" s="89" t="s">
+        <v>464</v>
+      </c>
+      <c r="B296" s="90">
+        <v>1</v>
+      </c>
+      <c r="C296" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A297" s="89" t="s">
+        <v>408</v>
+      </c>
+      <c r="B297" s="90">
+        <v>2</v>
+      </c>
+      <c r="C297" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A298" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="B298" s="90">
+        <v>11</v>
+      </c>
+      <c r="C298" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="89" t="s">
+        <v>477</v>
+      </c>
+      <c r="B299" s="90">
+        <v>2</v>
+      </c>
+      <c r="C299" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A300" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B300" s="90">
+        <v>126</v>
+      </c>
+      <c r="C300" s="91">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A301" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="B301" s="90">
+        <v>31</v>
+      </c>
+      <c r="C301" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" s="90">
+        <v>164</v>
+      </c>
+      <c r="C302" s="91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B303" s="90">
+        <v>202</v>
+      </c>
+      <c r="C303" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A304" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="B304" s="90">
+        <v>2</v>
+      </c>
+      <c r="C304" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A305" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="B305" s="90">
+        <v>1</v>
+      </c>
+      <c r="C305" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="89" t="s">
+        <v>413</v>
+      </c>
+      <c r="B306" s="90">
+        <v>1</v>
+      </c>
+      <c r="C306" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A307" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="B307" s="90">
+        <v>1</v>
+      </c>
+      <c r="C307" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A308" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="B308" s="90">
+        <v>2</v>
+      </c>
+      <c r="C308" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B309" s="90">
+        <v>17</v>
+      </c>
+      <c r="C309" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="B310" s="90">
+        <v>36</v>
+      </c>
+      <c r="C310" s="91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A311" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B311" s="90">
+        <v>1</v>
+      </c>
+      <c r="C311" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A312" s="89" t="s">
+        <v>519</v>
+      </c>
+      <c r="B312" s="90">
+        <v>1</v>
+      </c>
+      <c r="C312" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="89" t="s">
+        <v>478</v>
+      </c>
+      <c r="B313" s="90">
+        <v>1</v>
+      </c>
+      <c r="C313" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A314" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="B314" s="90">
+        <v>4</v>
+      </c>
+      <c r="C314" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="B315" s="90">
+        <v>2</v>
+      </c>
+      <c r="C315" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A316" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="B316" s="90">
+        <v>12</v>
+      </c>
+      <c r="C316" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A317" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B317" s="90">
+        <v>25</v>
+      </c>
+      <c r="C317" s="91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="B318" s="90">
+        <v>1</v>
+      </c>
+      <c r="C318" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B319" s="90">
+        <v>13</v>
+      </c>
+      <c r="C319" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A320" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B320" s="90">
+        <v>13</v>
+      </c>
+      <c r="C320" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A321" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B321" s="90">
+        <v>32</v>
+      </c>
+      <c r="C321" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="B322" s="90">
+        <v>1</v>
+      </c>
+      <c r="C322" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A323" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B323" s="90">
+        <v>12</v>
+      </c>
+      <c r="C323" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B324" s="90">
+        <v>18</v>
+      </c>
+      <c r="C324" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="B325" s="87">
+        <f>SUM(B2:B324)</f>
+        <v>28698</v>
+      </c>
+      <c r="C325" s="88">
+        <f>SUM(C2:C324)</f>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A328" s="89"/>
+      <c r="B328" s="90"/>
+      <c r="C328" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201E0B1C-D4F7-42EA-A2CC-6859997F7FC1}">
+  <dimension ref="A1:C331"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="G317" sqref="G317"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="94">
+        <v>1</v>
+      </c>
+      <c r="C7" s="94"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>72</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>314</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>117</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>488</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>465</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>466</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>440</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>513</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>372</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>240</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>514</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>420</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>490</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>521</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>307</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>454</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>522</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>491</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>492</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>181</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88">
+        <v>316</v>
+      </c>
+      <c r="C88">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>455</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>414</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>126</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>456</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>441</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>457</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102">
+        <v>98</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>87</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105">
+        <v>144</v>
+      </c>
+      <c r="C105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>301</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>458</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>493</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>503</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113">
+        <v>175</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>804</v>
+      </c>
+      <c r="C114">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>415</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>467</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>523</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>515</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>411</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>482</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>327</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>404</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127">
+        <v>14</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>388</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130">
+        <v>28</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>524</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>468</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133">
+        <v>17</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>257</v>
+      </c>
+      <c r="B136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137">
+        <v>124</v>
+      </c>
+      <c r="C137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138">
+        <v>18</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>442</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>459</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>483</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>426</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>120</v>
+      </c>
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150">
+        <v>33</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>525</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>53</v>
+      </c>
+      <c r="B155">
+        <v>47</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>298</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>261</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161">
+        <v>152</v>
+      </c>
+      <c r="C161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>405</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>461</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>389</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>228</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>462</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>308</v>
+      </c>
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>79</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>80</v>
+      </c>
+      <c r="B169">
+        <v>35</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>494</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171">
+        <v>20</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>443</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>303</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>310</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177">
+        <v>32</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>14</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>463</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>81</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181">
+        <v>241</v>
+      </c>
+      <c r="C181">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>416</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>444</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>417</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>229</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188">
+        <v>271</v>
+      </c>
+      <c r="C188">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>82</v>
+      </c>
+      <c r="B189">
+        <v>25</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>367</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>311</v>
+      </c>
+      <c r="B191">
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192">
+        <v>14</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>469</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>331</v>
+      </c>
+      <c r="B194">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>332</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>421</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>312</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>516</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>156</v>
+      </c>
+      <c r="B200">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>495</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>263</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>179</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204">
+        <v>828</v>
+      </c>
+      <c r="C204">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>264</v>
+      </c>
+      <c r="B205">
+        <v>19</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>445</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>504</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>505</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>265</v>
+      </c>
+      <c r="B209">
+        <v>29</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>496</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>54</v>
+      </c>
+      <c r="B211">
+        <v>19</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>391</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>334</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>266</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>526</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>470</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>55</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>205</v>
+      </c>
+      <c r="B218">
+        <v>22</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>406</v>
+      </c>
+      <c r="B219">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>313</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>206</v>
+      </c>
+      <c r="B221">
+        <v>11</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>471</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>497</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>372</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>56</v>
+      </c>
+      <c r="B226">
+        <v>90</v>
+      </c>
+      <c r="C226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>412</v>
+      </c>
+      <c r="B227">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>84</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>472</v>
+      </c>
+      <c r="B229">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>446</v>
+      </c>
+      <c r="B230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>335</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>447</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233">
+        <v>62</v>
+      </c>
+      <c r="C233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>314</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>407</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>57</v>
+      </c>
+      <c r="B236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>267</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>484</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>85</v>
+      </c>
+      <c r="B239">
+        <v>141</v>
+      </c>
+      <c r="C239">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>336</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>473</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>506</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>234</v>
+      </c>
+      <c r="B243">
+        <v>25</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>207</v>
+      </c>
+      <c r="B244">
+        <v>11</v>
+      </c>
+      <c r="C244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>183</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>422</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>418</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>392</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>498</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>393</v>
+      </c>
+      <c r="B250">
+        <v>11</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>499</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252">
+        <v>72</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>42</v>
+      </c>
+      <c r="B253">
+        <v>118</v>
+      </c>
+      <c r="C253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>315</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>337</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256">
+        <v>18</v>
+      </c>
+      <c r="C256">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>507</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>208</v>
+      </c>
+      <c r="B258">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>448</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>508</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>209</v>
+      </c>
+      <c r="B261">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>133</v>
+      </c>
+      <c r="B262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>517</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>161</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>474</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>210</v>
+      </c>
+      <c r="B267">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>485</v>
+      </c>
+      <c r="B268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>376</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>87</v>
+      </c>
+      <c r="B270">
+        <v>14</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>292</v>
+      </c>
+      <c r="B271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>518</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>449</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274">
+        <v>141</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275">
+        <v>565</v>
+      </c>
+      <c r="C275">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>394</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>500</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>475</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>476</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>58</v>
+      </c>
+      <c r="B280">
+        <v>600</v>
+      </c>
+      <c r="C280">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281">
+        <v>705</v>
+      </c>
+      <c r="C281">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282">
+        <v>227</v>
+      </c>
+      <c r="C282">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>211</v>
+      </c>
+      <c r="B283">
+        <v>14</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>270</v>
+      </c>
+      <c r="B284">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>395</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>88</v>
+      </c>
+      <c r="B286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>26</v>
+      </c>
+      <c r="B287">
+        <v>92</v>
+      </c>
+      <c r="C287">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>27</v>
+      </c>
+      <c r="B288">
+        <v>224</v>
+      </c>
+      <c r="C288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>423</v>
+      </c>
+      <c r="B289">
+        <v>6</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>163</v>
+      </c>
+      <c r="B290">
+        <v>9</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>271</v>
+      </c>
+      <c r="B291">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>28</v>
+      </c>
+      <c r="B292">
+        <v>19087</v>
+      </c>
+      <c r="C292">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>59</v>
+      </c>
+      <c r="B293">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>212</v>
+      </c>
+      <c r="B294">
+        <v>23</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>29</v>
+      </c>
+      <c r="B295">
+        <v>42</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>450</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>89</v>
+      </c>
+      <c r="B297">
+        <v>180</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>509</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>464</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>408</v>
+      </c>
+      <c r="B300">
+        <v>8</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>272</v>
+      </c>
+      <c r="B301">
+        <v>13</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>477</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>43</v>
+      </c>
+      <c r="B303">
+        <v>128</v>
+      </c>
+      <c r="C303">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>213</v>
+      </c>
+      <c r="B304">
+        <v>30</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>30</v>
+      </c>
+      <c r="B305">
+        <v>179</v>
+      </c>
+      <c r="C305">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>31</v>
+      </c>
+      <c r="B306">
+        <v>206</v>
+      </c>
+      <c r="C306">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>396</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>242</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>413</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>409</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>410</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>527</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>33</v>
+      </c>
+      <c r="B313">
+        <v>17</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>32</v>
+      </c>
+      <c r="B314">
+        <v>40</v>
+      </c>
+      <c r="C314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>187</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>528</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>519</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>478</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>273</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>501</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>304</v>
+      </c>
+      <c r="B321">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>34</v>
+      </c>
+      <c r="B322">
+        <v>26</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>510</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>529</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>35</v>
+      </c>
+      <c r="B325">
+        <v>14</v>
+      </c>
+      <c r="C325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>316</v>
+      </c>
+      <c r="B326">
+        <v>14</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>90</v>
+      </c>
+      <c r="B327">
+        <v>33</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>424</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>147</v>
+      </c>
+      <c r="B329">
+        <v>14</v>
+      </c>
+      <c r="C329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>92</v>
+      </c>
+      <c r="B330">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B331" s="69">
+        <f>SUM(B2:B330)</f>
+        <v>30374</v>
+      </c>
+      <c r="C331" s="69">
+        <f>SUM(C2:C330)</f>
+        <v>2511</v>
       </c>
     </row>
   </sheetData>

--- a/data/Municipios informacoes dia.xlsx
+++ b/data/Municipios informacoes dia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Covid_19\Covid_19\Arquivos diarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC640917-36AD-4EE1-BBA5-AC84F06B0AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9937C266-736C-45E3-8BF3-E496F6E2C1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="22" activeTab="33" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="24" activeTab="35" xr2:uid="{080242D8-F7C1-4B2B-9FF7-DBD39726E69A}"/>
   </bookViews>
   <sheets>
     <sheet name="26_mar" sheetId="2" r:id="rId1"/>
@@ -47,6 +47,8 @@
     <sheet name="29_abr" sheetId="34" r:id="rId32"/>
     <sheet name="30_abr" sheetId="35" r:id="rId33"/>
     <sheet name="01_mai" sheetId="36" r:id="rId34"/>
+    <sheet name="02_mai" sheetId="37" r:id="rId35"/>
+    <sheet name="03_mai" sheetId="38" r:id="rId36"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08_abr'!$H$58:$I$58</definedName>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7088" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="533">
   <si>
     <t>Casos confirmados</t>
   </si>
@@ -1662,6 +1664,15 @@
   <si>
     <t>VARGEM GRANDE DO SUL</t>
   </si>
+  <si>
+    <t>OSVALDO CRUZ</t>
+  </si>
+  <si>
+    <t>PRACINHA</t>
+  </si>
+  <si>
+    <t>SAO PEDRO DO TURVO</t>
+  </si>
 </sst>
 </file>
 
@@ -61732,7 +61743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201E0B1C-D4F7-42EA-A2CC-6859997F7FC1}">
   <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+    <sheetView topLeftCell="A303" workbookViewId="0">
       <selection activeCell="G317" sqref="G317"/>
     </sheetView>
   </sheetViews>
@@ -64846,6 +64857,6490 @@
       <c r="C331" s="69">
         <f>SUM(C2:C330)</f>
         <v>2511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA054F8-BE9B-4F78-8F5F-6F9340310D15}">
+  <dimension ref="A1:C334"/>
+  <sheetViews>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="G332" sqref="G332"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>72</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>324</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>117</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>488</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>465</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>466</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60">
+        <v>54</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>440</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>513</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>380</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70">
+        <v>42</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>252</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>514</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>420</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>490</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>521</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>307</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>454</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>522</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>491</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>492</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>188</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88">
+        <v>320</v>
+      </c>
+      <c r="C88">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>455</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>414</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>134</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>456</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>441</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>457</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102">
+        <v>103</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>89</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105">
+        <v>147</v>
+      </c>
+      <c r="C105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>301</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>458</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>493</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>503</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113">
+        <v>180</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>816</v>
+      </c>
+      <c r="C114">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>415</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>467</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>33</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>523</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>515</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>411</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>482</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>327</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>404</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127">
+        <v>14</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>388</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130">
+        <v>28</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>524</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>468</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133">
+        <v>17</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134">
+        <v>135</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135">
+        <v>21</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>257</v>
+      </c>
+      <c r="B136">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137">
+        <v>134</v>
+      </c>
+      <c r="C137">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138">
+        <v>18</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>442</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>459</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>483</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>426</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>120</v>
+      </c>
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150">
+        <v>35</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>525</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>53</v>
+      </c>
+      <c r="B155">
+        <v>51</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>298</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>261</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161">
+        <v>155</v>
+      </c>
+      <c r="C161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>405</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>461</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>389</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>228</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>462</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>308</v>
+      </c>
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>79</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>80</v>
+      </c>
+      <c r="B169">
+        <v>35</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>494</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171">
+        <v>20</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>443</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>303</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>310</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177">
+        <v>33</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>15</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>463</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>81</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181">
+        <v>248</v>
+      </c>
+      <c r="C181">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>416</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>444</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>417</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>229</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188">
+        <v>280</v>
+      </c>
+      <c r="C188">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>82</v>
+      </c>
+      <c r="B189">
+        <v>25</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>367</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>311</v>
+      </c>
+      <c r="B191">
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192">
+        <v>14</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>469</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>331</v>
+      </c>
+      <c r="B194">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>332</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>421</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>312</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>516</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>156</v>
+      </c>
+      <c r="B200">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>495</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>263</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>179</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204">
+        <v>887</v>
+      </c>
+      <c r="C204">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>530</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>264</v>
+      </c>
+      <c r="B206">
+        <v>19</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>445</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>504</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>505</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>265</v>
+      </c>
+      <c r="B210">
+        <v>29</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>496</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212">
+        <v>19</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>391</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>334</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>266</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>526</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>470</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>55</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>205</v>
+      </c>
+      <c r="B219">
+        <v>24</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>406</v>
+      </c>
+      <c r="B220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>313</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>206</v>
+      </c>
+      <c r="B222">
+        <v>11</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>233</v>
+      </c>
+      <c r="B223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>471</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>497</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>372</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>56</v>
+      </c>
+      <c r="B227">
+        <v>102</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>412</v>
+      </c>
+      <c r="B228">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>84</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>472</v>
+      </c>
+      <c r="B230">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>446</v>
+      </c>
+      <c r="B231">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>335</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234">
+        <v>64</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>314</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>407</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>57</v>
+      </c>
+      <c r="B237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>267</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>531</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>484</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>85</v>
+      </c>
+      <c r="B241">
+        <v>140</v>
+      </c>
+      <c r="C241">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>336</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>473</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>506</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>234</v>
+      </c>
+      <c r="B245">
+        <v>25</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>207</v>
+      </c>
+      <c r="B246">
+        <v>11</v>
+      </c>
+      <c r="C246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>183</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>422</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>418</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>392</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>393</v>
+      </c>
+      <c r="B252">
+        <v>12</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254">
+        <v>74</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>42</v>
+      </c>
+      <c r="B255">
+        <v>136</v>
+      </c>
+      <c r="C255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>315</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>337</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258">
+        <v>18</v>
+      </c>
+      <c r="C258">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>507</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>208</v>
+      </c>
+      <c r="B260">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>448</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>508</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>209</v>
+      </c>
+      <c r="B263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>133</v>
+      </c>
+      <c r="B264">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>517</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>161</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>474</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>210</v>
+      </c>
+      <c r="B269">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>485</v>
+      </c>
+      <c r="B270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>376</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>87</v>
+      </c>
+      <c r="B272">
+        <v>16</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>292</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>518</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>449</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276">
+        <v>142</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277">
+        <v>578</v>
+      </c>
+      <c r="C277">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>394</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>500</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>475</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>476</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>58</v>
+      </c>
+      <c r="B282">
+        <v>606</v>
+      </c>
+      <c r="C282">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283">
+        <v>720</v>
+      </c>
+      <c r="C283">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284">
+        <v>234</v>
+      </c>
+      <c r="C284">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>211</v>
+      </c>
+      <c r="B285">
+        <v>14</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>270</v>
+      </c>
+      <c r="B286">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>395</v>
+      </c>
+      <c r="B287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>88</v>
+      </c>
+      <c r="B288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>26</v>
+      </c>
+      <c r="B289">
+        <v>112</v>
+      </c>
+      <c r="C289">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290">
+        <v>226</v>
+      </c>
+      <c r="C290">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>423</v>
+      </c>
+      <c r="B291">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>163</v>
+      </c>
+      <c r="B292">
+        <v>9</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>271</v>
+      </c>
+      <c r="B293">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>28</v>
+      </c>
+      <c r="B294">
+        <v>19494</v>
+      </c>
+      <c r="C294">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>59</v>
+      </c>
+      <c r="B295">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>532</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>212</v>
+      </c>
+      <c r="B297">
+        <v>23</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>29</v>
+      </c>
+      <c r="B298">
+        <v>82</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>450</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>89</v>
+      </c>
+      <c r="B300">
+        <v>183</v>
+      </c>
+      <c r="C300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>509</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>464</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>408</v>
+      </c>
+      <c r="B303">
+        <v>8</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>272</v>
+      </c>
+      <c r="B304">
+        <v>13</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>477</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>43</v>
+      </c>
+      <c r="B306">
+        <v>136</v>
+      </c>
+      <c r="C306">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>213</v>
+      </c>
+      <c r="B307">
+        <v>30</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>30</v>
+      </c>
+      <c r="B308">
+        <v>182</v>
+      </c>
+      <c r="C308">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>31</v>
+      </c>
+      <c r="B309">
+        <v>210</v>
+      </c>
+      <c r="C309">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>396</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>242</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>413</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>409</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>410</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>527</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>33</v>
+      </c>
+      <c r="B316">
+        <v>18</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>32</v>
+      </c>
+      <c r="B317">
+        <v>40</v>
+      </c>
+      <c r="C317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>187</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>528</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>519</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>478</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>273</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>501</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>304</v>
+      </c>
+      <c r="B324">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>34</v>
+      </c>
+      <c r="B325">
+        <v>26</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>510</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>529</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>35</v>
+      </c>
+      <c r="B328">
+        <v>14</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>316</v>
+      </c>
+      <c r="B329">
+        <v>17</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>90</v>
+      </c>
+      <c r="B330">
+        <v>33</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>424</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>147</v>
+      </c>
+      <c r="B332">
+        <v>15</v>
+      </c>
+      <c r="C332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>92</v>
+      </c>
+      <c r="B333">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B334" s="69">
+        <f>SUM(B2:B333)</f>
+        <v>31174</v>
+      </c>
+      <c r="C334" s="69">
+        <f>SUM(C2:C333)</f>
+        <v>2586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86164896-AD1C-44A4-84F8-4DDF536F56D2}">
+  <dimension ref="A1:C334"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="I329" sqref="I329"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="53">
+        <v>6</v>
+      </c>
+      <c r="C2" s="53"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="53"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="53">
+        <v>14</v>
+      </c>
+      <c r="C4" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="53">
+        <v>1</v>
+      </c>
+      <c r="C5" s="53"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="53">
+        <v>4</v>
+      </c>
+      <c r="C6" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="53">
+        <v>1</v>
+      </c>
+      <c r="C7" s="53"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="53">
+        <v>15</v>
+      </c>
+      <c r="C8" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="53">
+        <v>1</v>
+      </c>
+      <c r="C9" s="53"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="53">
+        <v>1</v>
+      </c>
+      <c r="C10" s="53"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="53">
+        <v>53</v>
+      </c>
+      <c r="C11" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="53">
+        <v>9</v>
+      </c>
+      <c r="C12" s="53"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="53">
+        <v>9</v>
+      </c>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="53">
+        <v>12</v>
+      </c>
+      <c r="C14" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" s="53">
+        <v>2</v>
+      </c>
+      <c r="C15" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16" s="53">
+        <v>3</v>
+      </c>
+      <c r="C16" s="53"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="53">
+        <v>1</v>
+      </c>
+      <c r="C17" s="53"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="53">
+        <v>1</v>
+      </c>
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="53">
+        <v>3</v>
+      </c>
+      <c r="C19" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="53">
+        <v>72</v>
+      </c>
+      <c r="C20" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="53">
+        <v>5</v>
+      </c>
+      <c r="C21" s="53"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="53">
+        <v>10</v>
+      </c>
+      <c r="C22" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="53">
+        <v>73</v>
+      </c>
+      <c r="C23" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="53">
+        <v>19</v>
+      </c>
+      <c r="C24" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25" s="53">
+        <v>1</v>
+      </c>
+      <c r="C25" s="53"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="53">
+        <v>4</v>
+      </c>
+      <c r="C26" s="53"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="53">
+        <v>3</v>
+      </c>
+      <c r="C27" s="53"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="53">
+        <v>64</v>
+      </c>
+      <c r="C28" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="53">
+        <v>15</v>
+      </c>
+      <c r="C29" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="53">
+        <v>36</v>
+      </c>
+      <c r="C30" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="53">
+        <v>1</v>
+      </c>
+      <c r="C31" s="53"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="53">
+        <v>22</v>
+      </c>
+      <c r="C32" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="53">
+        <v>2</v>
+      </c>
+      <c r="C33" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="53">
+        <v>1</v>
+      </c>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" s="53">
+        <v>8</v>
+      </c>
+      <c r="C35" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="53">
+        <v>1</v>
+      </c>
+      <c r="C36" s="53"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="53">
+        <v>53</v>
+      </c>
+      <c r="C37" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="53">
+        <v>362</v>
+      </c>
+      <c r="C38" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="53">
+        <v>2</v>
+      </c>
+      <c r="C39" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="53">
+        <v>119</v>
+      </c>
+      <c r="C40" s="53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="53">
+        <v>6</v>
+      </c>
+      <c r="C41" s="53"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42" s="53">
+        <v>1</v>
+      </c>
+      <c r="C42" s="53"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="53">
+        <v>30</v>
+      </c>
+      <c r="C43" s="53"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44" s="53">
+        <v>9</v>
+      </c>
+      <c r="C44" s="53"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>488</v>
+      </c>
+      <c r="B45" s="53">
+        <v>4</v>
+      </c>
+      <c r="C45" s="53"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="53">
+        <v>13</v>
+      </c>
+      <c r="C46" s="53"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>465</v>
+      </c>
+      <c r="B47" s="53">
+        <v>2</v>
+      </c>
+      <c r="C47" s="53"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48" s="53">
+        <v>1</v>
+      </c>
+      <c r="C48" s="53"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>466</v>
+      </c>
+      <c r="B49" s="53">
+        <v>3</v>
+      </c>
+      <c r="C49" s="53"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="53">
+        <v>74</v>
+      </c>
+      <c r="C50" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="53">
+        <v>74</v>
+      </c>
+      <c r="C51" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="53">
+        <v>9</v>
+      </c>
+      <c r="C52" s="53"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" s="53">
+        <v>6</v>
+      </c>
+      <c r="C53" s="53"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" s="53">
+        <v>4</v>
+      </c>
+      <c r="C54" s="53"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="53">
+        <v>12</v>
+      </c>
+      <c r="C55" s="53"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="53">
+        <v>3</v>
+      </c>
+      <c r="C56" s="53"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" s="53">
+        <v>1</v>
+      </c>
+      <c r="C57" s="53"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" s="53">
+        <v>1</v>
+      </c>
+      <c r="C58" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="53">
+        <v>101</v>
+      </c>
+      <c r="C59" s="53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="53">
+        <v>57</v>
+      </c>
+      <c r="C60" s="53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>440</v>
+      </c>
+      <c r="B61" s="53">
+        <v>5</v>
+      </c>
+      <c r="C61" s="53"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>513</v>
+      </c>
+      <c r="B62" s="53">
+        <v>1</v>
+      </c>
+      <c r="C62" s="53"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="53">
+        <v>2</v>
+      </c>
+      <c r="C63" s="53"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="53">
+        <v>402</v>
+      </c>
+      <c r="C64" s="53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="53">
+        <v>23</v>
+      </c>
+      <c r="C65" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="53">
+        <v>3</v>
+      </c>
+      <c r="C66" s="53"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67" s="53">
+        <v>6</v>
+      </c>
+      <c r="C67" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="53">
+        <v>5</v>
+      </c>
+      <c r="C68" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69" s="53">
+        <v>2</v>
+      </c>
+      <c r="C69" s="53"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="53">
+        <v>42</v>
+      </c>
+      <c r="C70" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="53">
+        <v>267</v>
+      </c>
+      <c r="C71" s="53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" s="53">
+        <v>2</v>
+      </c>
+      <c r="C72" s="53"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="53">
+        <v>20</v>
+      </c>
+      <c r="C73" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="53">
+        <v>1</v>
+      </c>
+      <c r="C74" s="53"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>514</v>
+      </c>
+      <c r="B75" s="53">
+        <v>4</v>
+      </c>
+      <c r="C75" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>420</v>
+      </c>
+      <c r="B76" s="53">
+        <v>1</v>
+      </c>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>490</v>
+      </c>
+      <c r="B77" s="53">
+        <v>1</v>
+      </c>
+      <c r="C77" s="53"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>521</v>
+      </c>
+      <c r="B78" s="53">
+        <v>1</v>
+      </c>
+      <c r="C78" s="53"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>307</v>
+      </c>
+      <c r="B79" s="53">
+        <v>1</v>
+      </c>
+      <c r="C79" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>454</v>
+      </c>
+      <c r="B80" s="53">
+        <v>1</v>
+      </c>
+      <c r="C80" s="53"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>522</v>
+      </c>
+      <c r="B81" s="53">
+        <v>1</v>
+      </c>
+      <c r="C81" s="53"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>491</v>
+      </c>
+      <c r="B82" s="53">
+        <v>1</v>
+      </c>
+      <c r="C82" s="53"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>492</v>
+      </c>
+      <c r="B83" s="53">
+        <v>2</v>
+      </c>
+      <c r="C83" s="53"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="53">
+        <v>192</v>
+      </c>
+      <c r="C84" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="53">
+        <v>8</v>
+      </c>
+      <c r="C85" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" s="53">
+        <v>7</v>
+      </c>
+      <c r="C86" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87" s="53">
+        <v>41</v>
+      </c>
+      <c r="C87" s="53"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="53">
+        <v>331</v>
+      </c>
+      <c r="C88" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>455</v>
+      </c>
+      <c r="B89" s="53">
+        <v>1</v>
+      </c>
+      <c r="C89" s="53"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="53">
+        <v>8</v>
+      </c>
+      <c r="C90" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" s="53">
+        <v>1</v>
+      </c>
+      <c r="C91" s="53"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="53">
+        <v>2</v>
+      </c>
+      <c r="C92" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>414</v>
+      </c>
+      <c r="B93" s="53">
+        <v>1</v>
+      </c>
+      <c r="C93" s="53"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="53">
+        <v>139</v>
+      </c>
+      <c r="C94" s="53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" s="53">
+        <v>33</v>
+      </c>
+      <c r="C95" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>456</v>
+      </c>
+      <c r="B96" s="53">
+        <v>8</v>
+      </c>
+      <c r="C96" s="53"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>441</v>
+      </c>
+      <c r="B97" s="53">
+        <v>1</v>
+      </c>
+      <c r="C97" s="53"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" s="53">
+        <v>1</v>
+      </c>
+      <c r="C98" s="53"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>457</v>
+      </c>
+      <c r="B99" s="53">
+        <v>1</v>
+      </c>
+      <c r="C99" s="53"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" s="53">
+        <v>6</v>
+      </c>
+      <c r="C100" s="53"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" s="53">
+        <v>10</v>
+      </c>
+      <c r="C101" s="53"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="53">
+        <v>105</v>
+      </c>
+      <c r="C102" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="53">
+        <v>22</v>
+      </c>
+      <c r="C103" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="53">
+        <v>92</v>
+      </c>
+      <c r="C104" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="53">
+        <v>149</v>
+      </c>
+      <c r="C105" s="53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>301</v>
+      </c>
+      <c r="B106" s="53">
+        <v>4</v>
+      </c>
+      <c r="C106" s="53"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>458</v>
+      </c>
+      <c r="B107" s="53">
+        <v>2</v>
+      </c>
+      <c r="C107" s="53"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>493</v>
+      </c>
+      <c r="B108" s="53">
+        <v>1</v>
+      </c>
+      <c r="C108" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="53">
+        <v>7</v>
+      </c>
+      <c r="C109" s="53"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="53">
+        <v>5</v>
+      </c>
+      <c r="C110" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" s="53">
+        <v>4</v>
+      </c>
+      <c r="C111" s="53"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>503</v>
+      </c>
+      <c r="B112" s="53">
+        <v>1</v>
+      </c>
+      <c r="C112" s="53"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="53">
+        <v>192</v>
+      </c>
+      <c r="C113" s="53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="53">
+        <v>833</v>
+      </c>
+      <c r="C114" s="53">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>415</v>
+      </c>
+      <c r="B115" s="53">
+        <v>1</v>
+      </c>
+      <c r="C115" s="53"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>467</v>
+      </c>
+      <c r="B116" s="53">
+        <v>2</v>
+      </c>
+      <c r="C116" s="53"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="53">
+        <v>34</v>
+      </c>
+      <c r="C117" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>523</v>
+      </c>
+      <c r="B118" s="53">
+        <v>1</v>
+      </c>
+      <c r="C118" s="53"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119" s="53">
+        <v>2</v>
+      </c>
+      <c r="C119" s="53"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>515</v>
+      </c>
+      <c r="B120" s="53">
+        <v>1</v>
+      </c>
+      <c r="C120" s="53"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>199</v>
+      </c>
+      <c r="B121" s="53">
+        <v>7</v>
+      </c>
+      <c r="C121" s="53"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>411</v>
+      </c>
+      <c r="B122" s="53">
+        <v>1</v>
+      </c>
+      <c r="C122" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>482</v>
+      </c>
+      <c r="B123" s="53">
+        <v>5</v>
+      </c>
+      <c r="C123" s="53"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>327</v>
+      </c>
+      <c r="B124" s="53">
+        <v>1</v>
+      </c>
+      <c r="C124" s="53"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="53">
+        <v>10</v>
+      </c>
+      <c r="C125" s="53"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>404</v>
+      </c>
+      <c r="B126" s="53">
+        <v>8</v>
+      </c>
+      <c r="C126" s="53"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="53">
+        <v>14</v>
+      </c>
+      <c r="C127" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>388</v>
+      </c>
+      <c r="B128" s="53">
+        <v>3</v>
+      </c>
+      <c r="C128" s="53"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="53">
+        <v>5</v>
+      </c>
+      <c r="C129" s="53"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" s="53">
+        <v>28</v>
+      </c>
+      <c r="C130" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>524</v>
+      </c>
+      <c r="B131" s="53">
+        <v>1</v>
+      </c>
+      <c r="C131" s="53"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>468</v>
+      </c>
+      <c r="B132" s="53">
+        <v>6</v>
+      </c>
+      <c r="C132" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133" s="53">
+        <v>17</v>
+      </c>
+      <c r="C133" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="53">
+        <v>135</v>
+      </c>
+      <c r="C134" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" s="53">
+        <v>22</v>
+      </c>
+      <c r="C135" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>257</v>
+      </c>
+      <c r="B136" s="53">
+        <v>12</v>
+      </c>
+      <c r="C136" s="53"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137" s="53">
+        <v>141</v>
+      </c>
+      <c r="C137" s="53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" s="53">
+        <v>18</v>
+      </c>
+      <c r="C138" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="53">
+        <v>138</v>
+      </c>
+      <c r="C139" s="53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140" s="53">
+        <v>3</v>
+      </c>
+      <c r="C140" s="53"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>442</v>
+      </c>
+      <c r="B141" s="53">
+        <v>3</v>
+      </c>
+      <c r="C141" s="53"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142" s="53">
+        <v>10</v>
+      </c>
+      <c r="C142" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143" s="53">
+        <v>1</v>
+      </c>
+      <c r="C143" s="53"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>459</v>
+      </c>
+      <c r="B144" s="53">
+        <v>1</v>
+      </c>
+      <c r="C144" s="53"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145" s="53">
+        <v>21</v>
+      </c>
+      <c r="C145" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" s="53">
+        <v>4</v>
+      </c>
+      <c r="C146" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>483</v>
+      </c>
+      <c r="B147" s="53">
+        <v>1</v>
+      </c>
+      <c r="C147" s="53"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>426</v>
+      </c>
+      <c r="B148" s="53">
+        <v>2</v>
+      </c>
+      <c r="C148" s="53"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>120</v>
+      </c>
+      <c r="B149" s="53">
+        <v>17</v>
+      </c>
+      <c r="C149" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" s="53">
+        <v>38</v>
+      </c>
+      <c r="C150" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="53">
+        <v>14</v>
+      </c>
+      <c r="C151" s="53"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>525</v>
+      </c>
+      <c r="B152" s="53">
+        <v>1</v>
+      </c>
+      <c r="C152" s="53"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="53">
+        <v>16</v>
+      </c>
+      <c r="C153" s="53"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154" s="53">
+        <v>4</v>
+      </c>
+      <c r="C154" s="53"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>53</v>
+      </c>
+      <c r="B155" s="53">
+        <v>54</v>
+      </c>
+      <c r="C155" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>298</v>
+      </c>
+      <c r="B156" s="53">
+        <v>6</v>
+      </c>
+      <c r="C156" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157" s="53">
+        <v>1</v>
+      </c>
+      <c r="C157" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="53">
+        <v>26</v>
+      </c>
+      <c r="C158" s="53"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>261</v>
+      </c>
+      <c r="B159" s="53">
+        <v>2</v>
+      </c>
+      <c r="C159" s="53"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" s="53">
+        <v>3</v>
+      </c>
+      <c r="C160" s="53"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="53">
+        <v>153</v>
+      </c>
+      <c r="C161" s="53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>405</v>
+      </c>
+      <c r="B162" s="53">
+        <v>2</v>
+      </c>
+      <c r="C162" s="53"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>461</v>
+      </c>
+      <c r="B163" s="53">
+        <v>1</v>
+      </c>
+      <c r="C163" s="53"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>389</v>
+      </c>
+      <c r="B164" s="53">
+        <v>5</v>
+      </c>
+      <c r="C164" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>228</v>
+      </c>
+      <c r="B165" s="53">
+        <v>5</v>
+      </c>
+      <c r="C165" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>462</v>
+      </c>
+      <c r="B166" s="53">
+        <v>2</v>
+      </c>
+      <c r="C166" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>308</v>
+      </c>
+      <c r="B167" s="53">
+        <v>7</v>
+      </c>
+      <c r="C167" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>79</v>
+      </c>
+      <c r="B168" s="53">
+        <v>6</v>
+      </c>
+      <c r="C168" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>80</v>
+      </c>
+      <c r="B169" s="53">
+        <v>35</v>
+      </c>
+      <c r="C169" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>494</v>
+      </c>
+      <c r="B170" s="53">
+        <v>3</v>
+      </c>
+      <c r="C170" s="53"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171" s="53">
+        <v>20</v>
+      </c>
+      <c r="C171" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" s="53">
+        <v>6</v>
+      </c>
+      <c r="C172" s="53"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="53">
+        <v>11</v>
+      </c>
+      <c r="C173" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>443</v>
+      </c>
+      <c r="B174" s="53">
+        <v>7</v>
+      </c>
+      <c r="C174" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>303</v>
+      </c>
+      <c r="B175" s="53">
+        <v>2</v>
+      </c>
+      <c r="C175" s="53"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>310</v>
+      </c>
+      <c r="B176" s="53">
+        <v>7</v>
+      </c>
+      <c r="C176" s="53"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="53">
+        <v>39</v>
+      </c>
+      <c r="C177" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" s="53">
+        <v>15</v>
+      </c>
+      <c r="C178" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>463</v>
+      </c>
+      <c r="B179" s="53">
+        <v>3</v>
+      </c>
+      <c r="C179" s="53"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>81</v>
+      </c>
+      <c r="B180" s="53">
+        <v>5</v>
+      </c>
+      <c r="C180" s="53"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="53">
+        <v>248</v>
+      </c>
+      <c r="C181" s="53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>416</v>
+      </c>
+      <c r="B182" s="53">
+        <v>1</v>
+      </c>
+      <c r="C182" s="53"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>390</v>
+      </c>
+      <c r="B183" s="53">
+        <v>5</v>
+      </c>
+      <c r="C183" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>444</v>
+      </c>
+      <c r="B184" s="53">
+        <v>5</v>
+      </c>
+      <c r="C184" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>417</v>
+      </c>
+      <c r="B185" s="53">
+        <v>6</v>
+      </c>
+      <c r="C185" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" s="53">
+        <v>9</v>
+      </c>
+      <c r="C186" s="53"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>229</v>
+      </c>
+      <c r="B187" s="53">
+        <v>5</v>
+      </c>
+      <c r="C187" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="53">
+        <v>285</v>
+      </c>
+      <c r="C188" s="53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>82</v>
+      </c>
+      <c r="B189" s="53">
+        <v>25</v>
+      </c>
+      <c r="C189" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>330</v>
+      </c>
+      <c r="B190" s="53">
+        <v>4</v>
+      </c>
+      <c r="C190" s="53"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>311</v>
+      </c>
+      <c r="B191" s="53">
+        <v>11</v>
+      </c>
+      <c r="C191" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="53">
+        <v>14</v>
+      </c>
+      <c r="C192" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>469</v>
+      </c>
+      <c r="B193" s="53">
+        <v>1</v>
+      </c>
+      <c r="C193" s="53"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>331</v>
+      </c>
+      <c r="B194" s="53">
+        <v>6</v>
+      </c>
+      <c r="C194" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>332</v>
+      </c>
+      <c r="B195" s="53">
+        <v>2</v>
+      </c>
+      <c r="C195" s="53"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196" s="53">
+        <v>7</v>
+      </c>
+      <c r="C196" s="53"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>421</v>
+      </c>
+      <c r="B197" s="53">
+        <v>5</v>
+      </c>
+      <c r="C197" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>312</v>
+      </c>
+      <c r="B198" s="53">
+        <v>1</v>
+      </c>
+      <c r="C198" s="53"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>516</v>
+      </c>
+      <c r="B199" s="53">
+        <v>1</v>
+      </c>
+      <c r="C199" s="53"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>156</v>
+      </c>
+      <c r="B200" s="53">
+        <v>7</v>
+      </c>
+      <c r="C200" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>495</v>
+      </c>
+      <c r="B201" s="53">
+        <v>3</v>
+      </c>
+      <c r="C201" s="53"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>263</v>
+      </c>
+      <c r="B202" s="53">
+        <v>5</v>
+      </c>
+      <c r="C202" s="53"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>179</v>
+      </c>
+      <c r="B203" s="53">
+        <v>4</v>
+      </c>
+      <c r="C203" s="53"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="53">
+        <v>914</v>
+      </c>
+      <c r="C204" s="53">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>530</v>
+      </c>
+      <c r="B205" s="53">
+        <v>1</v>
+      </c>
+      <c r="C205" s="53"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>264</v>
+      </c>
+      <c r="B206" s="53">
+        <v>19</v>
+      </c>
+      <c r="C206" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>445</v>
+      </c>
+      <c r="B207" s="53">
+        <v>1</v>
+      </c>
+      <c r="C207" s="53"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>504</v>
+      </c>
+      <c r="B208" s="53">
+        <v>2</v>
+      </c>
+      <c r="C208" s="53"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>505</v>
+      </c>
+      <c r="B209" s="53">
+        <v>2</v>
+      </c>
+      <c r="C209" s="53"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>265</v>
+      </c>
+      <c r="B210" s="53">
+        <v>29</v>
+      </c>
+      <c r="C210" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>496</v>
+      </c>
+      <c r="B211" s="53">
+        <v>1</v>
+      </c>
+      <c r="C211" s="53"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" s="53">
+        <v>19</v>
+      </c>
+      <c r="C212" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>391</v>
+      </c>
+      <c r="B213" s="53">
+        <v>2</v>
+      </c>
+      <c r="C213" s="53"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>334</v>
+      </c>
+      <c r="B214" s="53">
+        <v>2</v>
+      </c>
+      <c r="C214" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>266</v>
+      </c>
+      <c r="B215" s="53">
+        <v>1</v>
+      </c>
+      <c r="C215" s="53"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>526</v>
+      </c>
+      <c r="B216" s="53">
+        <v>2</v>
+      </c>
+      <c r="C216" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>470</v>
+      </c>
+      <c r="B217" s="53">
+        <v>2</v>
+      </c>
+      <c r="C217" s="53"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>55</v>
+      </c>
+      <c r="B218" s="53">
+        <v>2</v>
+      </c>
+      <c r="C218" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>205</v>
+      </c>
+      <c r="B219" s="53">
+        <v>24</v>
+      </c>
+      <c r="C219" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>406</v>
+      </c>
+      <c r="B220" s="53">
+        <v>10</v>
+      </c>
+      <c r="C220" s="53"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>313</v>
+      </c>
+      <c r="B221" s="53">
+        <v>4</v>
+      </c>
+      <c r="C221" s="53"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>206</v>
+      </c>
+      <c r="B222" s="53">
+        <v>11</v>
+      </c>
+      <c r="C222" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>233</v>
+      </c>
+      <c r="B223" s="53">
+        <v>6</v>
+      </c>
+      <c r="C223" s="53"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>471</v>
+      </c>
+      <c r="B224" s="53">
+        <v>1</v>
+      </c>
+      <c r="C224" s="53"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>497</v>
+      </c>
+      <c r="B225" s="53">
+        <v>2</v>
+      </c>
+      <c r="C225" s="53"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>372</v>
+      </c>
+      <c r="B226" s="53">
+        <v>4</v>
+      </c>
+      <c r="C226" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>56</v>
+      </c>
+      <c r="B227" s="53">
+        <v>104</v>
+      </c>
+      <c r="C227" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>412</v>
+      </c>
+      <c r="B228" s="53">
+        <v>11</v>
+      </c>
+      <c r="C228" s="53"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>84</v>
+      </c>
+      <c r="B229" s="53">
+        <v>1</v>
+      </c>
+      <c r="C229" s="53"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>472</v>
+      </c>
+      <c r="B230" s="53">
+        <v>18</v>
+      </c>
+      <c r="C230" s="53"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>446</v>
+      </c>
+      <c r="B231" s="53">
+        <v>13</v>
+      </c>
+      <c r="C231" s="53"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>335</v>
+      </c>
+      <c r="B232" s="53">
+        <v>5</v>
+      </c>
+      <c r="C232" s="53"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233" s="53">
+        <v>1</v>
+      </c>
+      <c r="C233" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234" s="53">
+        <v>65</v>
+      </c>
+      <c r="C234" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>314</v>
+      </c>
+      <c r="B235" s="53">
+        <v>4</v>
+      </c>
+      <c r="C235" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>407</v>
+      </c>
+      <c r="B236" s="53">
+        <v>3</v>
+      </c>
+      <c r="C236" s="53"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>57</v>
+      </c>
+      <c r="B237" s="53">
+        <v>7</v>
+      </c>
+      <c r="C237" s="53"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>267</v>
+      </c>
+      <c r="B238" s="53">
+        <v>3</v>
+      </c>
+      <c r="C238" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>531</v>
+      </c>
+      <c r="B239" s="53">
+        <v>1</v>
+      </c>
+      <c r="C239" s="53"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>484</v>
+      </c>
+      <c r="B240" s="53">
+        <v>1</v>
+      </c>
+      <c r="C240" s="53"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>85</v>
+      </c>
+      <c r="B241" s="53">
+        <v>140</v>
+      </c>
+      <c r="C241" s="53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>336</v>
+      </c>
+      <c r="B242" s="53">
+        <v>2</v>
+      </c>
+      <c r="C242" s="53"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>473</v>
+      </c>
+      <c r="B243" s="53">
+        <v>1</v>
+      </c>
+      <c r="C243" s="53"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>506</v>
+      </c>
+      <c r="B244" s="53">
+        <v>1</v>
+      </c>
+      <c r="C244" s="53"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>234</v>
+      </c>
+      <c r="B245" s="53">
+        <v>25</v>
+      </c>
+      <c r="C245" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>207</v>
+      </c>
+      <c r="B246" s="53">
+        <v>11</v>
+      </c>
+      <c r="C246" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>183</v>
+      </c>
+      <c r="B247" s="53">
+        <v>4</v>
+      </c>
+      <c r="C247" s="53"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>422</v>
+      </c>
+      <c r="B248" s="53">
+        <v>3</v>
+      </c>
+      <c r="C248" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>418</v>
+      </c>
+      <c r="B249" s="53">
+        <v>2</v>
+      </c>
+      <c r="C249" s="53"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>392</v>
+      </c>
+      <c r="B250" s="53">
+        <v>3</v>
+      </c>
+      <c r="C250" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" s="53">
+        <v>1</v>
+      </c>
+      <c r="C251" s="53"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>393</v>
+      </c>
+      <c r="B252" s="53">
+        <v>12</v>
+      </c>
+      <c r="C252" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" s="53">
+        <v>1</v>
+      </c>
+      <c r="C253" s="53"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" s="53">
+        <v>74</v>
+      </c>
+      <c r="C254" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>42</v>
+      </c>
+      <c r="B255" s="53">
+        <v>138</v>
+      </c>
+      <c r="C255" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>315</v>
+      </c>
+      <c r="B256" s="53">
+        <v>1</v>
+      </c>
+      <c r="C256" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>337</v>
+      </c>
+      <c r="B257" s="53">
+        <v>2</v>
+      </c>
+      <c r="C257" s="53"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258" s="53">
+        <v>18</v>
+      </c>
+      <c r="C258" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>507</v>
+      </c>
+      <c r="B259" s="53">
+        <v>1</v>
+      </c>
+      <c r="C259" s="53"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>208</v>
+      </c>
+      <c r="B260" s="53">
+        <v>23</v>
+      </c>
+      <c r="C260" s="53"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>448</v>
+      </c>
+      <c r="B261" s="53">
+        <v>2</v>
+      </c>
+      <c r="C261" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>508</v>
+      </c>
+      <c r="B262" s="53">
+        <v>1</v>
+      </c>
+      <c r="C262" s="53"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>209</v>
+      </c>
+      <c r="B263" s="53">
+        <v>10</v>
+      </c>
+      <c r="C263" s="53"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>133</v>
+      </c>
+      <c r="B264" s="53">
+        <v>7</v>
+      </c>
+      <c r="C264" s="53"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>517</v>
+      </c>
+      <c r="B265" s="53">
+        <v>1</v>
+      </c>
+      <c r="C265" s="53"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" s="53">
+        <v>6</v>
+      </c>
+      <c r="C266" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>161</v>
+      </c>
+      <c r="B267" s="53">
+        <v>2</v>
+      </c>
+      <c r="C267" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>474</v>
+      </c>
+      <c r="B268" s="53">
+        <v>1</v>
+      </c>
+      <c r="C268" s="53"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>210</v>
+      </c>
+      <c r="B269" s="53">
+        <v>18</v>
+      </c>
+      <c r="C269" s="53"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>485</v>
+      </c>
+      <c r="B270" s="53">
+        <v>4</v>
+      </c>
+      <c r="C270" s="53"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>376</v>
+      </c>
+      <c r="B271" s="53">
+        <v>1</v>
+      </c>
+      <c r="C271" s="53"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>87</v>
+      </c>
+      <c r="B272" s="53">
+        <v>17</v>
+      </c>
+      <c r="C272" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>292</v>
+      </c>
+      <c r="B273" s="53">
+        <v>5</v>
+      </c>
+      <c r="C273" s="53"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>518</v>
+      </c>
+      <c r="B274" s="53">
+        <v>1</v>
+      </c>
+      <c r="C274" s="53"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>449</v>
+      </c>
+      <c r="B275" s="53">
+        <v>1</v>
+      </c>
+      <c r="C275" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="53">
+        <v>152</v>
+      </c>
+      <c r="C276" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" s="53">
+        <v>580</v>
+      </c>
+      <c r="C277" s="53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>394</v>
+      </c>
+      <c r="B278" s="53">
+        <v>1</v>
+      </c>
+      <c r="C278" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>500</v>
+      </c>
+      <c r="B279" s="53">
+        <v>1</v>
+      </c>
+      <c r="C279" s="53"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>475</v>
+      </c>
+      <c r="B280" s="53">
+        <v>2</v>
+      </c>
+      <c r="C280" s="53"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>476</v>
+      </c>
+      <c r="B281" s="53">
+        <v>2</v>
+      </c>
+      <c r="C281" s="53"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>58</v>
+      </c>
+      <c r="B282" s="53">
+        <v>609</v>
+      </c>
+      <c r="C282" s="53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="53">
+        <v>731</v>
+      </c>
+      <c r="C283" s="53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="53">
+        <v>236</v>
+      </c>
+      <c r="C284" s="53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>211</v>
+      </c>
+      <c r="B285" s="53">
+        <v>14</v>
+      </c>
+      <c r="C285" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>270</v>
+      </c>
+      <c r="B286" s="53">
+        <v>18</v>
+      </c>
+      <c r="C286" s="53"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>395</v>
+      </c>
+      <c r="B287" s="53">
+        <v>4</v>
+      </c>
+      <c r="C287" s="53"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>88</v>
+      </c>
+      <c r="B288" s="53">
+        <v>4</v>
+      </c>
+      <c r="C288" s="53"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>26</v>
+      </c>
+      <c r="B289" s="53">
+        <v>109</v>
+      </c>
+      <c r="C289" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" s="53">
+        <v>234</v>
+      </c>
+      <c r="C290" s="53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>423</v>
+      </c>
+      <c r="B291" s="53">
+        <v>7</v>
+      </c>
+      <c r="C291" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>163</v>
+      </c>
+      <c r="B292" s="53">
+        <v>11</v>
+      </c>
+      <c r="C292" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>271</v>
+      </c>
+      <c r="B293" s="53">
+        <v>9</v>
+      </c>
+      <c r="C293" s="53"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>28</v>
+      </c>
+      <c r="B294" s="53">
+        <v>19822</v>
+      </c>
+      <c r="C294" s="53">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>59</v>
+      </c>
+      <c r="B295" s="53">
+        <v>26</v>
+      </c>
+      <c r="C295" s="53"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>532</v>
+      </c>
+      <c r="B296" s="53">
+        <v>1</v>
+      </c>
+      <c r="C296" s="53"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>212</v>
+      </c>
+      <c r="B297" s="53">
+        <v>23</v>
+      </c>
+      <c r="C297" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>29</v>
+      </c>
+      <c r="B298" s="53">
+        <v>82</v>
+      </c>
+      <c r="C298" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>450</v>
+      </c>
+      <c r="B299" s="53">
+        <v>1</v>
+      </c>
+      <c r="C299" s="53"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>89</v>
+      </c>
+      <c r="B300" s="53">
+        <v>185</v>
+      </c>
+      <c r="C300" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>509</v>
+      </c>
+      <c r="B301" s="53">
+        <v>1</v>
+      </c>
+      <c r="C301" s="53"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>464</v>
+      </c>
+      <c r="B302" s="53">
+        <v>1</v>
+      </c>
+      <c r="C302" s="53"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>408</v>
+      </c>
+      <c r="B303" s="53">
+        <v>8</v>
+      </c>
+      <c r="C303" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>272</v>
+      </c>
+      <c r="B304" s="53">
+        <v>13</v>
+      </c>
+      <c r="C304" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>477</v>
+      </c>
+      <c r="B305" s="53">
+        <v>2</v>
+      </c>
+      <c r="C305" s="53"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>43</v>
+      </c>
+      <c r="B306" s="53">
+        <v>137</v>
+      </c>
+      <c r="C306" s="53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>213</v>
+      </c>
+      <c r="B307" s="53">
+        <v>31</v>
+      </c>
+      <c r="C307" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>30</v>
+      </c>
+      <c r="B308" s="53">
+        <v>185</v>
+      </c>
+      <c r="C308" s="53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>31</v>
+      </c>
+      <c r="B309" s="53">
+        <v>214</v>
+      </c>
+      <c r="C309" s="53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>396</v>
+      </c>
+      <c r="B310" s="53">
+        <v>3</v>
+      </c>
+      <c r="C310" s="53"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>242</v>
+      </c>
+      <c r="B311" s="53">
+        <v>1</v>
+      </c>
+      <c r="C311" s="53"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>413</v>
+      </c>
+      <c r="B312" s="53">
+        <v>1</v>
+      </c>
+      <c r="C312" s="53"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>409</v>
+      </c>
+      <c r="B313" s="53">
+        <v>1</v>
+      </c>
+      <c r="C313" s="53"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>410</v>
+      </c>
+      <c r="B314" s="53">
+        <v>2</v>
+      </c>
+      <c r="C314" s="53"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>527</v>
+      </c>
+      <c r="B315" s="53">
+        <v>1</v>
+      </c>
+      <c r="C315" s="53"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>33</v>
+      </c>
+      <c r="B316" s="53">
+        <v>18</v>
+      </c>
+      <c r="C316" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>32</v>
+      </c>
+      <c r="B317" s="53">
+        <v>40</v>
+      </c>
+      <c r="C317" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>187</v>
+      </c>
+      <c r="B318" s="53">
+        <v>2</v>
+      </c>
+      <c r="C318" s="53"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>528</v>
+      </c>
+      <c r="B319" s="53">
+        <v>1</v>
+      </c>
+      <c r="C319" s="53"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>519</v>
+      </c>
+      <c r="B320" s="53">
+        <v>1</v>
+      </c>
+      <c r="C320" s="53"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>478</v>
+      </c>
+      <c r="B321" s="53">
+        <v>1</v>
+      </c>
+      <c r="C321" s="53"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>273</v>
+      </c>
+      <c r="B322" s="53">
+        <v>3</v>
+      </c>
+      <c r="C322" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>501</v>
+      </c>
+      <c r="B323" s="53">
+        <v>3</v>
+      </c>
+      <c r="C323" s="53"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>304</v>
+      </c>
+      <c r="B324" s="53">
+        <v>13</v>
+      </c>
+      <c r="C324" s="53"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>34</v>
+      </c>
+      <c r="B325" s="53">
+        <v>26</v>
+      </c>
+      <c r="C325" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>510</v>
+      </c>
+      <c r="B326" s="53">
+        <v>1</v>
+      </c>
+      <c r="C326" s="53"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>529</v>
+      </c>
+      <c r="B327" s="53">
+        <v>1</v>
+      </c>
+      <c r="C327" s="53"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>35</v>
+      </c>
+      <c r="B328" s="53">
+        <v>14</v>
+      </c>
+      <c r="C328" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>316</v>
+      </c>
+      <c r="B329" s="53">
+        <v>18</v>
+      </c>
+      <c r="C329" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>90</v>
+      </c>
+      <c r="B330" s="53">
+        <v>33</v>
+      </c>
+      <c r="C330" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>424</v>
+      </c>
+      <c r="B331" s="53">
+        <v>1</v>
+      </c>
+      <c r="C331" s="53"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>147</v>
+      </c>
+      <c r="B332" s="53">
+        <v>15</v>
+      </c>
+      <c r="C332" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>92</v>
+      </c>
+      <c r="B333" s="53">
+        <v>20</v>
+      </c>
+      <c r="C333" s="53"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B334" s="69">
+        <f>SUM(B2:B333)</f>
+        <v>31772</v>
+      </c>
+      <c r="C334" s="69">
+        <f>SUM(C2:C333)</f>
+        <v>2627</v>
       </c>
     </row>
   </sheetData>
